--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>696706.2021439906</v>
+        <v>710167.3764443385</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>559512.0876269368</v>
+        <v>559512.0876269371</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10316995.04692716</v>
+        <v>10316995.04692717</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7890559.392411419</v>
+        <v>7890559.392411418</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>100.9294978122774</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>100.4358716628804</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>121.5789354633579</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -804,7 +806,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>119.9385141749736</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -899,22 +901,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>374.8427674045503</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>133.4671371971241</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3085121226096</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>29.19076188874265</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H7" t="n">
-        <v>138.3424411355423</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>235.4921832098733</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>152.7673954298708</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,22 +1217,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>109.6081688639339</v>
+        <v>128.1292407675111</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -1339,10 +1341,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>138.3424411355423</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>69.53079011854133</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.3595900553097</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
@@ -1385,10 +1387,10 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>192.9002122116455</v>
       </c>
       <c r="I11" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T12" t="n">
-        <v>185.9745311655609</v>
+        <v>185.9745311655613</v>
       </c>
       <c r="U12" t="n">
         <v>216.2963996197277</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.90747794091683</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447566</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>125.8532215944586</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>25.35959005531015</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
@@ -1625,7 +1627,7 @@
         <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
-        <v>103.9955955316209</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180446</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S15" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T15" t="n">
-        <v>185.9745311655609</v>
+        <v>185.9745311655613</v>
       </c>
       <c r="U15" t="n">
         <v>216.2963996197277</v>
@@ -1765,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>99.67218115413856</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>8.05302411083443</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447566</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.35959005531015</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
@@ -1850,13 +1852,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.5609956070679</v>
+        <v>132.5235851319025</v>
       </c>
       <c r="H17" t="n">
         <v>325.5814052293737</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S18" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T18" t="n">
         <v>185.9745311655613</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>99.67218115413856</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
-        <v>152.8519017703458</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,22 +2086,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>238.3706732746462</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>26.30676979466757</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S21" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T21" t="n">
         <v>185.9745311655613</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.500059287527126</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>218.5212637761711</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.73916953180445</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>236.4145321073207</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>105.2169781268318</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I24" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S24" t="n">
         <v>147.4755605575067</v>
       </c>
       <c r="T24" t="n">
-        <v>185.9745311655618</v>
+        <v>185.9745311655613</v>
       </c>
       <c r="U24" t="n">
         <v>216.2963996197277</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>23.42543447323257</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>99.67218115413833</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,16 +2557,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>13.37090701299181</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>15.01323894562883</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
         <v>411.5609956070679</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2643,7 +2645,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.346860069625</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
         <v>127.2368531361802</v>
@@ -2652,7 +2654,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I27" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S27" t="n">
         <v>147.4755605575067</v>
@@ -2710,31 +2712,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>17.05220189759618</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>52.32855318966267</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
@@ -2798,7 +2800,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
@@ -2807,7 +2809,7 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H29" t="n">
-        <v>173.6953719720997</v>
+        <v>189.9945155381455</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.73916953180445</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>157.8252483534488</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
         <v>160.0866360314548</v>
@@ -2889,7 +2891,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I30" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S30" t="n">
         <v>147.4755605575067</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>55.39665207530971</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>150.9558484244806</v>
+        <v>99.67218115413833</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>246.6546106580029</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>103.9847972533863</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S33" t="n">
         <v>147.4755605575067</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>125.8532215944585</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -3250,7 +3252,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>125.8532215944586</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>317.2241298591549</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -3278,13 +3280,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S35" t="n">
-        <v>112.5070747588951</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I36" t="n">
-        <v>60.66232013215034</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.7064605532244</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>163.1522114022676</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
@@ -3512,16 +3514,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>25.3595900553097</v>
       </c>
       <c r="U38" t="n">
-        <v>226.9531031655387</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S39" t="n">
         <v>147.4755605575067</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.82157839927656</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.67218115413844</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>337.0992091489836</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>325.5814052293737</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.4433659829895</v>
+        <v>46.97711766506791</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R43" t="n">
-        <v>23.42543447323235</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>218.8386712885586</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3985,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>247.3893692301183</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>69.51314340344621</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -4043,7 +4045,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314554</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
         <v>137.45025063969</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>124.8390672247517</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>284.3089918374816</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>245.3583681098678</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>890.9457088828888</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="C2" t="n">
-        <v>890.9457088828888</v>
+        <v>1223.785131457699</v>
       </c>
       <c r="D2" t="n">
-        <v>890.9457088828888</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E2" t="n">
-        <v>890.9457088828888</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F2" t="n">
-        <v>476.7945181930591</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G2" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
         <v>42.02425610119923</v>
@@ -4328,19 +4330,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4358,22 +4360,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T2" t="n">
-        <v>1876.853858790972</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U2" t="n">
-        <v>1621.968522504967</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V2" t="n">
-        <v>1284.989248400908</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W2" t="n">
-        <v>1284.989248400908</v>
+        <v>1999.76242964291</v>
       </c>
       <c r="X2" t="n">
-        <v>1284.989248400908</v>
+        <v>1999.76242964291</v>
       </c>
       <c r="Y2" t="n">
-        <v>1284.989248400908</v>
+        <v>1999.76242964291</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692.6706591732259</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C3" t="n">
-        <v>530.9669864141806</v>
+        <v>461.879904359699</v>
       </c>
       <c r="D3" t="n">
-        <v>392.1283494043927</v>
+        <v>461.879904359699</v>
       </c>
       <c r="E3" t="n">
-        <v>245.1003394612639</v>
+        <v>461.879904359699</v>
       </c>
       <c r="F3" t="n">
-        <v>110.4065414111382</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G3" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H3" t="n">
         <v>110.4065414111382</v>
@@ -4410,22 +4412,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>953.1336013146474</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N3" t="n">
-        <v>1464.39924743777</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O3" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P3" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
@@ -4452,7 +4454,7 @@
         <v>813.8206734913811</v>
       </c>
       <c r="Y3" t="n">
-        <v>692.6706591732259</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="4">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1370.189991437883</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C5" t="n">
-        <v>988.2562327706908</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D5" t="n">
-        <v>988.2562327706908</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E5" t="n">
-        <v>593.4705128767976</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F5" t="n">
-        <v>593.4705128767976</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
@@ -4601,16 +4603,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="V5" t="n">
-        <v>1764.233530955903</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W5" t="n">
-        <v>1764.233530955903</v>
+        <v>1966.397514961856</v>
       </c>
       <c r="X5" t="n">
-        <v>1764.233530955903</v>
+        <v>1584.36737448335</v>
       </c>
       <c r="Y5" t="n">
-        <v>1764.233530955903</v>
+        <v>1190.825519059187</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510.8867086332734</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C6" t="n">
-        <v>349.1830358742282</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D6" t="n">
-        <v>210.3443988644402</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="E6" t="n">
-        <v>210.3443988644402</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="F6" t="n">
-        <v>210.3443988644402</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>171.4477316239382</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>71.50987417063625</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
@@ -4650,13 +4652,13 @@
         <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>697.5908003646097</v>
+        <v>645.0462563653213</v>
       </c>
       <c r="M6" t="n">
-        <v>737.8796590913968</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N6" t="n">
-        <v>1249.145305214519</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O6" t="n">
         <v>1641.34525599867</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G7" t="n">
-        <v>386.0243786151989</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H7" t="n">
         <v>246.284539084348</v>
@@ -4744,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>951.0924799753814</v>
+        <v>2010.574518555814</v>
       </c>
       <c r="C8" t="n">
-        <v>569.1587213081887</v>
+        <v>2010.574518555814</v>
       </c>
       <c r="D8" t="n">
-        <v>196.3347565354122</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="E8" t="n">
-        <v>196.3347565354122</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F8" t="n">
-        <v>42.02425610119923</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119922</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740048</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037335</v>
+        <v>702.0485455037339</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4826,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555814</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555814</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555814</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555814</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555814</v>
       </c>
       <c r="W8" t="n">
-        <v>1738.677874917562</v>
+        <v>2010.574518555814</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.677874917562</v>
+        <v>2010.574518555814</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.1360194934</v>
+        <v>2010.574518555814</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.6641732647531</v>
+        <v>461.8799043596985</v>
       </c>
       <c r="C9" t="n">
-        <v>359.9605005057078</v>
+        <v>300.1762316006532</v>
       </c>
       <c r="D9" t="n">
-        <v>221.1218634959199</v>
+        <v>300.1762316006532</v>
       </c>
       <c r="E9" t="n">
-        <v>221.1218634959199</v>
+        <v>300.1762316006532</v>
       </c>
       <c r="F9" t="n">
-        <v>110.4065414111382</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119922</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119922</v>
       </c>
       <c r="I9" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119922</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>49.7338586350165</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>279.2244111952052</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>645.0462563653208</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>1130.079609875547</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1641.345255998669</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.345255998669</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931942</v>
       </c>
       <c r="V9" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1071.521930518641</v>
+        <v>1011.737661613586</v>
       </c>
       <c r="X9" t="n">
-        <v>873.6049423964351</v>
+        <v>813.8206734913806</v>
       </c>
       <c r="Y9" t="n">
-        <v>681.083616046014</v>
+        <v>621.2993471409594</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="C10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="D10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="E10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="F10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="G10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I10" t="n">
         <v>102.0814946870265</v>
       </c>
       <c r="J10" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119922</v>
       </c>
       <c r="K10" t="n">
         <v>75.62844384584264</v>
@@ -4987,25 +4989,25 @@
         <v>386.0243786151989</v>
       </c>
       <c r="S10" t="n">
-        <v>246.284539084348</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="U10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="V10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="W10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="X10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2517.080126130114</v>
+        <v>1843.181669414273</v>
       </c>
       <c r="C11" t="n">
-        <v>2135.146367462922</v>
+        <v>1843.181669414273</v>
       </c>
       <c r="D11" t="n">
-        <v>1762.322402690145</v>
+        <v>1470.357704641497</v>
       </c>
       <c r="E11" t="n">
-        <v>1367.536682796252</v>
+        <v>1075.571984747603</v>
       </c>
       <c r="F11" t="n">
-        <v>953.3854921064224</v>
+        <v>661.4207940577737</v>
       </c>
       <c r="G11" t="n">
-        <v>537.6673147255457</v>
+        <v>245.702616676897</v>
       </c>
       <c r="H11" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532634</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907115</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O11" t="n">
         <v>2124.896977382889</v>
@@ -5060,31 +5062,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R11" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S11" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T11" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U11" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V11" t="n">
-        <v>2542.69587366073</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="W11" t="n">
-        <v>2542.69587366073</v>
+        <v>1843.181669414273</v>
       </c>
       <c r="X11" t="n">
-        <v>2542.69587366073</v>
+        <v>1843.181669414273</v>
       </c>
       <c r="Y11" t="n">
-        <v>2542.69587366073</v>
+        <v>1843.181669414273</v>
       </c>
     </row>
     <row r="12">
@@ -5115,34 +5117,34 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I12" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K12" t="n">
-        <v>313.014426141483</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L12" t="n">
-        <v>722.7650590219087</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M12" t="n">
-        <v>1259.061235803009</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N12" t="n">
         <v>1761.629444945137</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.966047520444</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q12" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.728130619191</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S12" t="n">
         <v>2346.762917934841</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.9964486907828</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C13" t="n">
-        <v>139.9964486907828</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D13" t="n">
-        <v>139.9964486907828</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E13" t="n">
-        <v>139.9964486907828</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F13" t="n">
-        <v>139.9964486907828</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G13" t="n">
-        <v>139.9964486907828</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H13" t="n">
-        <v>139.9964486907828</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I13" t="n">
-        <v>98.6757639019779</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K13" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L13" t="n">
-        <v>229.9889654324848</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N13" t="n">
-        <v>518.9490144159676</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O13" t="n">
-        <v>641.3872247924077</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P13" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q13" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R13" t="n">
-        <v>583.129747076674</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S13" t="n">
-        <v>372.4359606620629</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T13" t="n">
-        <v>139.9964486907828</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U13" t="n">
-        <v>139.9964486907828</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="V13" t="n">
-        <v>139.9964486907828</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W13" t="n">
-        <v>139.9964486907828</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9964486907828</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.9964486907828</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2082.249132595434</v>
+        <v>2517.080126130114</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.249132595434</v>
+        <v>2135.146367462922</v>
       </c>
       <c r="D14" t="n">
-        <v>1709.425167822657</v>
+        <v>1762.322402690145</v>
       </c>
       <c r="E14" t="n">
-        <v>1314.639447928764</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="F14" t="n">
-        <v>900.4882572389345</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="G14" t="n">
-        <v>484.7700798580577</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H14" t="n">
-        <v>155.899973565761</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481635</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7433998907118</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O14" t="n">
         <v>2124.896977382889</v>
@@ -5297,31 +5299,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R14" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U14" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V14" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X14" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Y14" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.695873660731</v>
       </c>
     </row>
     <row r="15">
@@ -5343,7 +5345,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G15" t="n">
         <v>210.0732042050868</v>
@@ -5352,16 +5354,16 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I15" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>50.85391747321461</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K15" t="n">
-        <v>68.10001809715419</v>
+        <v>392.3832078845234</v>
       </c>
       <c r="L15" t="n">
-        <v>477.8506509775799</v>
+        <v>477.8506509775797</v>
       </c>
       <c r="M15" t="n">
         <v>1014.14682775868</v>
@@ -5373,13 +5375,13 @@
         <v>2018.368674122672</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.098500262958</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q15" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.728130619191</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S15" t="n">
         <v>2346.762917934841</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.8700896544215</v>
+        <v>151.5328883359808</v>
       </c>
       <c r="C16" t="n">
-        <v>724.8700896544215</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D16" t="n">
-        <v>724.8700896544215</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E16" t="n">
-        <v>716.7357218656998</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F16" t="n">
-        <v>564.2550668914769</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G16" t="n">
-        <v>395.508378968762</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H16" t="n">
-        <v>237.6744007828319</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I16" t="n">
-        <v>98.6757639019779</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K16" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L16" t="n">
-        <v>229.9889654324848</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N16" t="n">
-        <v>518.9490144159676</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O16" t="n">
-        <v>641.3872247924077</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P16" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q16" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R16" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S16" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T16" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U16" t="n">
-        <v>724.8700896544215</v>
+        <v>437.6892898185817</v>
       </c>
       <c r="V16" t="n">
-        <v>724.8700896544215</v>
+        <v>437.6892898185817</v>
       </c>
       <c r="W16" t="n">
-        <v>724.8700896544215</v>
+        <v>151.5328883359808</v>
       </c>
       <c r="X16" t="n">
-        <v>724.8700896544215</v>
+        <v>151.5328883359808</v>
       </c>
       <c r="Y16" t="n">
-        <v>724.8700896544215</v>
+        <v>151.5328883359808</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2517.080126130114</v>
+        <v>1426.287245369457</v>
       </c>
       <c r="C17" t="n">
-        <v>2135.146367462922</v>
+        <v>1044.353486702264</v>
       </c>
       <c r="D17" t="n">
-        <v>1762.322402690145</v>
+        <v>671.5295219294876</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.536682796252</v>
+        <v>671.5295219294876</v>
       </c>
       <c r="F17" t="n">
-        <v>953.3854921064224</v>
+        <v>671.5295219294876</v>
       </c>
       <c r="G17" t="n">
         <v>537.6673147255457</v>
@@ -5513,16 +5515,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J17" t="n">
-        <v>154.9459054532642</v>
+        <v>154.9459054532634</v>
       </c>
       <c r="K17" t="n">
-        <v>443.186030248164</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907125</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M17" t="n">
-        <v>1310.379159876957</v>
+        <v>1310.379159876956</v>
       </c>
       <c r="N17" t="n">
         <v>1756.181478599933</v>
@@ -5537,28 +5539,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R17" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S17" t="n">
-        <v>2542.695873660731</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T17" t="n">
-        <v>2542.695873660731</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U17" t="n">
-        <v>2542.695873660731</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="V17" t="n">
-        <v>2542.695873660731</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="W17" t="n">
-        <v>2542.695873660731</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="X17" t="n">
-        <v>2542.695873660731</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="Y17" t="n">
-        <v>2542.695873660731</v>
+        <v>1820.330784887476</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C18" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D18" t="n">
         <v>620.3170860732707</v>
@@ -5580,7 +5582,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G18" t="n">
         <v>210.0732042050868</v>
@@ -5592,25 +5594,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K18" t="n">
-        <v>392.3832078845233</v>
+        <v>313.0144261414831</v>
       </c>
       <c r="L18" t="n">
-        <v>802.133840764949</v>
+        <v>722.7650590219089</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.146827758681</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N18" t="n">
-        <v>1578.032071547365</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O18" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q18" t="n">
         <v>2542.695873660731</v>
@@ -5677,46 +5679,46 @@
         <v>104.1644935890949</v>
       </c>
       <c r="L19" t="n">
-        <v>229.9889654324848</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M19" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N19" t="n">
-        <v>518.9490144159676</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O19" t="n">
-        <v>641.3872247924077</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P19" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q19" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R19" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S19" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T19" t="n">
-        <v>492.4305776831413</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U19" t="n">
-        <v>205.2497778473013</v>
+        <v>437.6892898185817</v>
       </c>
       <c r="V19" t="n">
-        <v>50.85391747321462</v>
+        <v>437.6892898185817</v>
       </c>
       <c r="W19" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359808</v>
       </c>
       <c r="X19" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359808</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359808</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>673.5661339935853</v>
+        <v>1755.11047871855</v>
       </c>
       <c r="C20" t="n">
-        <v>291.6323753263926</v>
+        <v>1373.176720051357</v>
       </c>
       <c r="D20" t="n">
-        <v>50.85391747321462</v>
+        <v>1373.176720051357</v>
       </c>
       <c r="E20" t="n">
-        <v>50.85391747321462</v>
+        <v>978.3910001574638</v>
       </c>
       <c r="F20" t="n">
-        <v>50.85391747321462</v>
+        <v>564.2398094676341</v>
       </c>
       <c r="G20" t="n">
-        <v>50.85391747321462</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H20" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I20" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532633</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481636</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O20" t="n">
         <v>2124.896977382889</v>
@@ -5786,16 +5788,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="V20" t="n">
-        <v>2205.716599556672</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W20" t="n">
-        <v>1843.181669414273</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X20" t="n">
-        <v>1461.151528935766</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Y20" t="n">
-        <v>1067.609673511604</v>
+        <v>2149.154018236569</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C21" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D21" t="n">
         <v>620.3170860732707</v>
@@ -5817,7 +5819,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F21" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G21" t="n">
         <v>210.0732042050868</v>
@@ -5832,25 +5834,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K21" t="n">
-        <v>313.014426141483</v>
+        <v>251.697391494926</v>
       </c>
       <c r="L21" t="n">
-        <v>722.7650590219088</v>
+        <v>661.4480243753518</v>
       </c>
       <c r="M21" t="n">
-        <v>1259.061235803009</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N21" t="n">
-        <v>1822.946479591694</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O21" t="n">
-        <v>2263.283082167001</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P21" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q21" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R21" t="n">
         <v>2495.728130619192</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>207.4612240671965</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C22" t="n">
-        <v>207.4612240671965</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D22" t="n">
-        <v>54.38933089495919</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E22" t="n">
-        <v>54.38933089495919</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F22" t="n">
-        <v>54.38933089495919</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G22" t="n">
-        <v>54.38933089495919</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H22" t="n">
-        <v>54.38933089495919</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I22" t="n">
-        <v>54.38933089495919</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J22" t="n">
         <v>50.85391747321462</v>
@@ -5917,7 +5919,7 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M22" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N22" t="n">
         <v>518.9490144159677</v>
@@ -5944,16 +5946,16 @@
         <v>724.8700896544216</v>
       </c>
       <c r="V22" t="n">
-        <v>724.8700896544216</v>
+        <v>504.1415403855618</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7136881718207</v>
+        <v>504.1415403855618</v>
       </c>
       <c r="X22" t="n">
-        <v>207.4612240671965</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.4612240671965</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1604.379111730111</v>
+        <v>1200.397360807077</v>
       </c>
       <c r="C23" t="n">
-        <v>1604.379111730111</v>
+        <v>818.4636021398842</v>
       </c>
       <c r="D23" t="n">
-        <v>1604.379111730111</v>
+        <v>445.6396373671078</v>
       </c>
       <c r="E23" t="n">
-        <v>1209.593391836218</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F23" t="n">
-        <v>795.442201146388</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G23" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H23" t="n">
         <v>50.85391747321462</v>
@@ -5990,10 +5992,10 @@
         <v>154.9459054532635</v>
       </c>
       <c r="K23" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L23" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M23" t="n">
         <v>1310.379159876956</v>
@@ -6011,28 +6013,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R23" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S23" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="T23" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="U23" t="n">
-        <v>2303.893315976568</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="V23" t="n">
-        <v>1966.91404187251</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="W23" t="n">
-        <v>1604.379111730111</v>
+        <v>2370.012896227765</v>
       </c>
       <c r="X23" t="n">
-        <v>1604.379111730111</v>
+        <v>1987.982755749258</v>
       </c>
       <c r="Y23" t="n">
-        <v>1604.379111730111</v>
+        <v>1594.440900325096</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6068,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J24" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K24" t="n">
-        <v>68.10001809715425</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L24" t="n">
-        <v>477.85065097758</v>
+        <v>802.133840764949</v>
       </c>
       <c r="M24" t="n">
-        <v>1014.14682775868</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N24" t="n">
         <v>1578.032071547365</v>
@@ -6093,7 +6095,7 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S24" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T24" t="n">
         <v>2158.909856151446</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>700.8242228045381</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="C25" t="n">
-        <v>677.1621677810708</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="D25" t="n">
-        <v>524.0902746088335</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="E25" t="n">
-        <v>372.0812603701523</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="F25" t="n">
-        <v>219.6006053959295</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="G25" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="H25" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="I25" t="n">
         <v>50.85391747321462</v>
@@ -6157,40 +6159,40 @@
         <v>374.5706761520456</v>
       </c>
       <c r="N25" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O25" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P25" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q25" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R25" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S25" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T25" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="U25" t="n">
-        <v>700.8242228045381</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="V25" t="n">
-        <v>700.8242228045381</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="W25" t="n">
-        <v>700.8242228045381</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="X25" t="n">
-        <v>700.8242228045381</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="Y25" t="n">
-        <v>700.8242228045381</v>
+        <v>151.5328883359806</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1745.269858491376</v>
+        <v>2148.652334142711</v>
       </c>
       <c r="C26" t="n">
-        <v>1363.336099824183</v>
+        <v>2135.146367462922</v>
       </c>
       <c r="D26" t="n">
-        <v>1363.336099824183</v>
+        <v>1762.322402690145</v>
       </c>
       <c r="E26" t="n">
-        <v>968.5503799302899</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="F26" t="n">
         <v>953.3854921064224</v>
@@ -6224,19 +6226,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J26" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K26" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L26" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M26" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N26" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O26" t="n">
         <v>2124.896977382889</v>
@@ -6248,28 +6250,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R26" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S26" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T26" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U26" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V26" t="n">
-        <v>2139.313398009395</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W26" t="n">
-        <v>2139.313398009395</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X26" t="n">
-        <v>2139.313398009395</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Y26" t="n">
-        <v>2139.313398009395</v>
+        <v>2542.695873660731</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C27" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D27" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E27" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F27" t="n">
         <v>338.5952780800163</v>
@@ -6306,22 +6308,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K27" t="n">
-        <v>68.10001809715425</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L27" t="n">
-        <v>477.85065097758</v>
+        <v>722.7650590219087</v>
       </c>
       <c r="M27" t="n">
-        <v>1014.14682775868</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N27" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O27" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P27" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q27" t="n">
         <v>2542.695873660731</v>
@@ -6330,19 +6332,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S27" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T27" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U27" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V27" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W27" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X27" t="n">
         <v>1272.800164973786</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>541.3147209700418</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="C28" t="n">
-        <v>541.3147209700418</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="D28" t="n">
-        <v>524.0902746088335</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="E28" t="n">
-        <v>372.0812603701523</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="F28" t="n">
-        <v>219.6006053959295</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="G28" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="H28" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="I28" t="n">
-        <v>50.85391747321462</v>
+        <v>98.6757639019779</v>
       </c>
       <c r="J28" t="n">
         <v>50.85391747321462</v>
@@ -6394,40 +6396,40 @@
         <v>374.5706761520456</v>
       </c>
       <c r="N28" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O28" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="U28" t="n">
-        <v>724.8700896544216</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="V28" t="n">
-        <v>724.8700896544216</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="W28" t="n">
-        <v>724.8700896544216</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="X28" t="n">
-        <v>724.8700896544216</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="Y28" t="n">
-        <v>724.8700896544216</v>
+        <v>151.5328883359806</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2205.716599556672</v>
+        <v>1827.394661042623</v>
       </c>
       <c r="C29" t="n">
-        <v>1823.782840889479</v>
+        <v>1445.46090237543</v>
       </c>
       <c r="D29" t="n">
-        <v>1450.958876116703</v>
+        <v>1072.636937602654</v>
       </c>
       <c r="E29" t="n">
-        <v>1056.17315622281</v>
+        <v>1072.636937602654</v>
       </c>
       <c r="F29" t="n">
-        <v>642.0219655329799</v>
+        <v>658.4857469128242</v>
       </c>
       <c r="G29" t="n">
-        <v>226.3037881521032</v>
+        <v>242.7675695319475</v>
       </c>
       <c r="H29" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I29" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J29" t="n">
         <v>154.9459054532635</v>
       </c>
       <c r="K29" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L29" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M29" t="n">
         <v>1310.379159876956</v>
@@ -6482,31 +6484,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R29" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="S29" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="T29" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="U29" t="n">
-        <v>2542.695873660731</v>
+        <v>2221.438200560642</v>
       </c>
       <c r="V29" t="n">
-        <v>2205.716599556672</v>
+        <v>2221.438200560642</v>
       </c>
       <c r="W29" t="n">
-        <v>2205.716599556672</v>
+        <v>2221.438200560642</v>
       </c>
       <c r="X29" t="n">
-        <v>2205.716599556672</v>
+        <v>2221.438200560642</v>
       </c>
       <c r="Y29" t="n">
-        <v>2205.716599556672</v>
+        <v>2221.438200560642</v>
       </c>
     </row>
     <row r="30">
@@ -6531,55 +6533,55 @@
         <v>338.5952780800163</v>
       </c>
       <c r="G30" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050867</v>
       </c>
       <c r="H30" t="n">
         <v>112.1289883137699</v>
       </c>
       <c r="I30" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J30" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K30" t="n">
-        <v>251.6973914949265</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L30" t="n">
-        <v>661.4480243753522</v>
+        <v>722.7650590219087</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.744201156453</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N30" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O30" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P30" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R30" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S30" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T30" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U30" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V30" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W30" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X30" t="n">
         <v>1272.800164973786</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2542.695873660731</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="C31" t="n">
-        <v>2542.695873660731</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="D31" t="n">
-        <v>2542.695873660731</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="E31" t="n">
-        <v>2486.739659443246</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="F31" t="n">
-        <v>2334.259004469023</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G31" t="n">
-        <v>2165.512316546308</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H31" t="n">
-        <v>2007.678338360378</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I31" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J31" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K31" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L31" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M31" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N31" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O31" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P31" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q31" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R31" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S31" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T31" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="U31" t="n">
-        <v>2542.695873660731</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="V31" t="n">
-        <v>2542.695873660731</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="W31" t="n">
-        <v>2542.695873660731</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="X31" t="n">
-        <v>2542.695873660731</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="Y31" t="n">
-        <v>2542.695873660731</v>
+        <v>151.5328883359806</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1067.609673511604</v>
+        <v>695.7661158412359</v>
       </c>
       <c r="C32" t="n">
-        <v>1067.609673511604</v>
+        <v>313.8323571740432</v>
       </c>
       <c r="D32" t="n">
-        <v>694.7857087388279</v>
+        <v>313.8323571740432</v>
       </c>
       <c r="E32" t="n">
-        <v>299.9999888449348</v>
+        <v>313.8323571740432</v>
       </c>
       <c r="F32" t="n">
-        <v>50.85391747321462</v>
+        <v>313.8323571740432</v>
       </c>
       <c r="G32" t="n">
-        <v>50.85391747321462</v>
+        <v>313.8323571740432</v>
       </c>
       <c r="H32" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I32" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J32" t="n">
-        <v>154.9459054532633</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K32" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L32" t="n">
         <v>850.7433998907119</v>
@@ -6722,28 +6724,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R32" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S32" t="n">
-        <v>2542.695873660731</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T32" t="n">
-        <v>2542.695873660731</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U32" t="n">
-        <v>2542.695873660731</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="V32" t="n">
-        <v>2205.716599556672</v>
+        <v>1483.351510783417</v>
       </c>
       <c r="W32" t="n">
-        <v>1843.181669414273</v>
+        <v>1483.351510783417</v>
       </c>
       <c r="X32" t="n">
-        <v>1461.151528935766</v>
+        <v>1483.351510783417</v>
       </c>
       <c r="Y32" t="n">
-        <v>1067.609673511604</v>
+        <v>1089.809655359255</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C33" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D33" t="n">
         <v>620.3170860732707</v>
@@ -6765,7 +6767,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F33" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G33" t="n">
         <v>210.0732042050868</v>
@@ -6780,13 +6782,13 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K33" t="n">
-        <v>251.6973914949265</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L33" t="n">
-        <v>661.4480243753522</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.744201156453</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N33" t="n">
         <v>1761.629444945137</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K34" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L34" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M34" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N34" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P34" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q34" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R34" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S34" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T34" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U34" t="n">
-        <v>2542.695873660731</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="V34" t="n">
-        <v>2281.960569219154</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W34" t="n">
-        <v>1995.804167736553</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y34" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.548551496907</v>
+        <v>2082.750816689292</v>
       </c>
       <c r="C35" t="n">
-        <v>1232.614792829714</v>
+        <v>2082.750816689292</v>
       </c>
       <c r="D35" t="n">
-        <v>859.7908280569375</v>
+        <v>1762.322402690145</v>
       </c>
       <c r="E35" t="n">
-        <v>465.0051081630443</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="F35" t="n">
-        <v>50.85391747321462</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="G35" t="n">
-        <v>50.85391747321462</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H35" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I35" t="n">
         <v>50.85391747321462</v>
@@ -6938,16 +6940,16 @@
         <v>154.9459054532635</v>
       </c>
       <c r="K35" t="n">
-        <v>443.1860302481635</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L35" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M35" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N35" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O35" t="n">
         <v>2124.896977382889</v>
@@ -6959,28 +6961,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R35" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S35" t="n">
-        <v>2429.052363803261</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="T35" t="n">
-        <v>2206.382297153777</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="U35" t="n">
-        <v>1951.527825600965</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="V35" t="n">
-        <v>1614.548551496907</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="W35" t="n">
-        <v>1614.548551496907</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="X35" t="n">
-        <v>1614.548551496907</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="Y35" t="n">
-        <v>1614.548551496907</v>
+        <v>2082.750816689292</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.8593958421045</v>
+        <v>920.859395842104</v>
       </c>
       <c r="C36" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830588</v>
       </c>
       <c r="D36" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732708</v>
       </c>
       <c r="E36" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301421</v>
       </c>
       <c r="F36" t="n">
-        <v>338.5952780800169</v>
+        <v>338.5952780800164</v>
       </c>
       <c r="G36" t="n">
-        <v>210.0732042050874</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H36" t="n">
-        <v>112.1289883137705</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I36" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J36" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K36" t="n">
-        <v>130.2226992162549</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L36" t="n">
-        <v>477.85065097758</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M36" t="n">
-        <v>1014.14682775868</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.032071547365</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O36" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P36" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q36" t="n">
         <v>2542.695873660731</v>
@@ -7047,13 +7049,13 @@
         <v>2158.909856151447</v>
       </c>
       <c r="U36" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V36" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W36" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X36" t="n">
         <v>1272.800164973786</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.85391747321462</v>
+        <v>2207.509199027822</v>
       </c>
       <c r="C37" t="n">
-        <v>50.85391747321462</v>
+        <v>2207.509199027822</v>
       </c>
       <c r="D37" t="n">
-        <v>50.85391747321462</v>
+        <v>2207.509199027822</v>
       </c>
       <c r="E37" t="n">
-        <v>50.85391747321462</v>
+        <v>2055.500184789141</v>
       </c>
       <c r="F37" t="n">
-        <v>50.85391747321462</v>
+        <v>2055.500184789141</v>
       </c>
       <c r="G37" t="n">
-        <v>50.85391747321462</v>
+        <v>2055.500184789141</v>
       </c>
       <c r="H37" t="n">
-        <v>50.85391747321462</v>
+        <v>2055.500184789141</v>
       </c>
       <c r="I37" t="n">
-        <v>50.85391747321462</v>
+        <v>1916.501547908287</v>
       </c>
       <c r="J37" t="n">
-        <v>50.85391747321462</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="K37" t="n">
-        <v>104.1644935890949</v>
+        <v>1921.990277595404</v>
       </c>
       <c r="L37" t="n">
-        <v>229.9889654324849</v>
+        <v>2047.814749438794</v>
       </c>
       <c r="M37" t="n">
-        <v>374.5706761520456</v>
+        <v>2192.396460158355</v>
       </c>
       <c r="N37" t="n">
-        <v>518.9490144159677</v>
+        <v>2336.774798422277</v>
       </c>
       <c r="O37" t="n">
-        <v>641.3872247924078</v>
+        <v>2459.213008798717</v>
       </c>
       <c r="P37" t="n">
-        <v>724.8700896544216</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q37" t="n">
-        <v>724.8700896544216</v>
+        <v>2518.650006810847</v>
       </c>
       <c r="R37" t="n">
-        <v>724.8700896544216</v>
+        <v>2376.9096642331</v>
       </c>
       <c r="S37" t="n">
-        <v>724.8700896544216</v>
+        <v>2207.509199027822</v>
       </c>
       <c r="T37" t="n">
-        <v>724.8700896544216</v>
+        <v>2207.509199027822</v>
       </c>
       <c r="U37" t="n">
-        <v>437.6892898185816</v>
+        <v>2207.509199027822</v>
       </c>
       <c r="V37" t="n">
-        <v>437.6892898185816</v>
+        <v>2207.509199027822</v>
       </c>
       <c r="W37" t="n">
-        <v>437.6892898185816</v>
+        <v>2207.509199027822</v>
       </c>
       <c r="X37" t="n">
-        <v>272.8890762809376</v>
+        <v>2207.509199027822</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.85391747321462</v>
+        <v>2207.509199027822</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1200.397360807077</v>
+        <v>2517.080126130114</v>
       </c>
       <c r="C38" t="n">
-        <v>818.4636021398842</v>
+        <v>2135.146367462922</v>
       </c>
       <c r="D38" t="n">
-        <v>445.6396373671078</v>
+        <v>1762.322402690145</v>
       </c>
       <c r="E38" t="n">
-        <v>50.85391747321462</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="F38" t="n">
-        <v>50.85391747321462</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="G38" t="n">
-        <v>50.85391747321462</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H38" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J38" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532633</v>
       </c>
       <c r="K38" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481631</v>
       </c>
       <c r="L38" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907117</v>
       </c>
       <c r="M38" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N38" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O38" t="n">
         <v>2124.896977382889</v>
@@ -7193,31 +7195,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R38" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S38" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T38" t="n">
-        <v>2542.695873660731</v>
+        <v>2517.080126130114</v>
       </c>
       <c r="U38" t="n">
-        <v>2313.450314907661</v>
+        <v>2517.080126130114</v>
       </c>
       <c r="V38" t="n">
-        <v>1976.471040803603</v>
+        <v>2517.080126130114</v>
       </c>
       <c r="W38" t="n">
-        <v>1976.471040803603</v>
+        <v>2517.080126130114</v>
       </c>
       <c r="X38" t="n">
-        <v>1594.440900325096</v>
+        <v>2517.080126130114</v>
       </c>
       <c r="Y38" t="n">
-        <v>1594.440900325096</v>
+        <v>2517.080126130114</v>
       </c>
     </row>
     <row r="39">
@@ -7239,7 +7241,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F39" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G39" t="n">
         <v>210.0732042050868</v>
@@ -7248,31 +7250,31 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I39" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J39" t="n">
         <v>130.2226992162549</v>
       </c>
       <c r="K39" t="n">
-        <v>392.3832078845233</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="L39" t="n">
-        <v>802.1338407649491</v>
+        <v>539.9733320966807</v>
       </c>
       <c r="M39" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N39" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O39" t="n">
-        <v>2342.651863910041</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P39" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q39" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R39" t="n">
         <v>2495.728130619192</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2137.105346168628</v>
+        <v>151.5328883359807</v>
       </c>
       <c r="C40" t="n">
-        <v>1967.489376630308</v>
+        <v>151.5328883359807</v>
       </c>
       <c r="D40" t="n">
-        <v>1868.679701479524</v>
+        <v>151.5328883359807</v>
       </c>
       <c r="E40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J40" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K40" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L40" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M40" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N40" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O40" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P40" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q40" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R40" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S40" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T40" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U40" t="n">
-        <v>2542.695873660731</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="V40" t="n">
-        <v>2542.695873660731</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="W40" t="n">
-        <v>2542.695873660731</v>
+        <v>151.5328883359807</v>
       </c>
       <c r="X40" t="n">
-        <v>2542.695873660731</v>
+        <v>151.5328883359807</v>
       </c>
       <c r="Y40" t="n">
-        <v>2320.660714853008</v>
+        <v>151.5328883359807</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1115.013995325045</v>
+        <v>1147.333708432181</v>
       </c>
       <c r="C41" t="n">
-        <v>1115.013995325045</v>
+        <v>1147.333708432181</v>
       </c>
       <c r="D41" t="n">
-        <v>1115.013995325045</v>
+        <v>774.5097436594044</v>
       </c>
       <c r="E41" t="n">
-        <v>720.2282754311514</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="F41" t="n">
-        <v>720.2282754311514</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="G41" t="n">
         <v>379.7240237655113</v>
@@ -7409,19 +7411,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J41" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K41" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L41" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M41" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N41" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O41" t="n">
         <v>2124.896977382889</v>
@@ -7433,28 +7435,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R41" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S41" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T41" t="n">
-        <v>2253.622605463969</v>
+        <v>2495.244239655612</v>
       </c>
       <c r="U41" t="n">
-        <v>2253.622605463969</v>
+        <v>2240.389768102801</v>
       </c>
       <c r="V41" t="n">
-        <v>2253.622605463969</v>
+        <v>1903.410493998742</v>
       </c>
       <c r="W41" t="n">
-        <v>1891.08767532157</v>
+        <v>1540.875563856343</v>
       </c>
       <c r="X41" t="n">
-        <v>1509.057534843064</v>
+        <v>1540.875563856343</v>
       </c>
       <c r="Y41" t="n">
-        <v>1509.057534843064</v>
+        <v>1147.333708432181</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421044</v>
       </c>
       <c r="C42" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830591</v>
       </c>
       <c r="D42" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E42" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F42" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G42" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H42" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137697</v>
       </c>
       <c r="I42" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J42" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K42" t="n">
-        <v>392.3832078845233</v>
+        <v>68.10001809715425</v>
       </c>
       <c r="L42" t="n">
         <v>477.85065097758</v>
@@ -7518,16 +7520,16 @@
         <v>2346.762917934841</v>
       </c>
       <c r="T42" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U42" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V42" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W42" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X42" t="n">
         <v>1272.800164973786</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2494.98795178738</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C43" t="n">
-        <v>2494.98795178738</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D43" t="n">
-        <v>2341.916058615143</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E43" t="n">
-        <v>2189.907044376462</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F43" t="n">
-        <v>2037.426389402239</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G43" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H43" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I43" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J43" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K43" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L43" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M43" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N43" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O43" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P43" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q43" t="n">
-        <v>2518.650006810847</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="R43" t="n">
-        <v>2494.98795178738</v>
+        <v>559.0838802267906</v>
       </c>
       <c r="S43" t="n">
-        <v>2494.98795178738</v>
+        <v>559.0838802267906</v>
       </c>
       <c r="T43" t="n">
-        <v>2494.98795178738</v>
+        <v>559.0838802267906</v>
       </c>
       <c r="U43" t="n">
-        <v>2494.98795178738</v>
+        <v>271.9030803909506</v>
       </c>
       <c r="V43" t="n">
-        <v>2494.98795178738</v>
+        <v>271.9030803909506</v>
       </c>
       <c r="W43" t="n">
-        <v>2494.98795178738</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X43" t="n">
-        <v>2494.98795178738</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y43" t="n">
-        <v>2494.98795178738</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>673.5661339935853</v>
+        <v>1168.266165919164</v>
       </c>
       <c r="C44" t="n">
-        <v>673.5661339935853</v>
+        <v>1168.266165919164</v>
       </c>
       <c r="D44" t="n">
-        <v>300.7421692208088</v>
+        <v>795.442201146388</v>
       </c>
       <c r="E44" t="n">
-        <v>50.85391747321462</v>
+        <v>795.442201146388</v>
       </c>
       <c r="F44" t="n">
-        <v>50.85391747321462</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G44" t="n">
-        <v>50.85391747321462</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H44" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J44" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532633</v>
       </c>
       <c r="K44" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481631</v>
       </c>
       <c r="L44" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907117</v>
       </c>
       <c r="M44" t="n">
         <v>1310.379159876956</v>
@@ -7667,31 +7669,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R44" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S44" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T44" t="n">
-        <v>2542.695873660731</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U44" t="n">
-        <v>2542.695873660731</v>
+        <v>2249.810510644128</v>
       </c>
       <c r="V44" t="n">
-        <v>2205.716599556672</v>
+        <v>1912.83123654007</v>
       </c>
       <c r="W44" t="n">
-        <v>1843.181669414273</v>
+        <v>1550.296306397671</v>
       </c>
       <c r="X44" t="n">
-        <v>1461.151528935766</v>
+        <v>1168.266165919164</v>
       </c>
       <c r="Y44" t="n">
-        <v>1067.609673511604</v>
+        <v>1168.266165919164</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.8593958421045</v>
+        <v>920.859395842104</v>
       </c>
       <c r="C45" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830588</v>
       </c>
       <c r="D45" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732708</v>
       </c>
       <c r="E45" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301421</v>
       </c>
       <c r="F45" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800164</v>
       </c>
       <c r="G45" t="n">
         <v>210.0732042050868</v>
@@ -7722,7 +7724,7 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J45" t="n">
         <v>130.2226992162549</v>
@@ -7734,37 +7736,37 @@
         <v>802.1338407649491</v>
       </c>
       <c r="M45" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N45" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O45" t="n">
-        <v>2342.651863910041</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P45" t="n">
-        <v>2359.098500262959</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q45" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R45" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S45" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T45" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U45" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V45" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W45" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X45" t="n">
         <v>1272.800164973786</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2007.678338360378</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="C46" t="n">
-        <v>2007.678338360378</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="D46" t="n">
-        <v>2007.678338360378</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="E46" t="n">
-        <v>2007.678338360378</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="F46" t="n">
-        <v>2007.678338360378</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="G46" t="n">
-        <v>2007.678338360378</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H46" t="n">
-        <v>2007.678338360378</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K46" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L46" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M46" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N46" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O46" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U46" t="n">
-        <v>2255.515073824891</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="V46" t="n">
-        <v>2255.515073824891</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="W46" t="n">
-        <v>2007.678338360378</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="X46" t="n">
-        <v>2007.678338360378</v>
+        <v>176.9539853770042</v>
       </c>
       <c r="Y46" t="n">
-        <v>2007.678338360378</v>
+        <v>176.9539853770042</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>453.9580732035297</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8298,16 +8300,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>429.0171519255188</v>
       </c>
       <c r="M6" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8529,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>110.8430489735528</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8541,16 +8543,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2735058407155</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>83.74785933339989</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834667</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8778,7 +8780,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>561.2086880137341</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8789,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562195</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,13 +9005,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>83.74785933339989</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>96.41651716248474</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>154.5336713314974</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236966</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9240,7 +9242,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,7 +9251,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>277.8578053120012</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9258,10 +9260,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>352.0652005990325</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>83.74785933339987</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834663</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9495,10 +9497,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>352.065200599033</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.64858173562192</v>
+        <v>87.6485817356219</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>96.41651716248475</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9726,7 +9728,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836208</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9954,7 +9956,7 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K27" t="n">
-        <v>96.41651716248475</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9965,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>561.2086880137346</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10127,7 +10129,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P29" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229273</v>
       </c>
       <c r="Q29" t="n">
         <v>276.0094878578761</v>
@@ -10188,16 +10190,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K30" t="n">
-        <v>201.6979228743352</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>358.0282919211323</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10428,7 +10430,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>201.6979228743352</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,7 +10439,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>481.0382014046027</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10604,7 +10606,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>276.009487857876</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,13 +10664,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K36" t="n">
-        <v>78.99621350193966</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>419.3422659459104</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10680,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>352.065200599033</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236961</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10902,13 +10904,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193966</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>542.666399926413</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10917,10 +10919,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>271.8947139899012</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11072,7 +11074,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>495.0402356415691</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
         <v>418.3383206229274</v>
@@ -11136,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>96.41651716248475</v>
       </c>
       <c r="L42" t="n">
-        <v>154.5336713314979</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11315,7 +11317,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.009487857876</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11382,7 +11384,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120003</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11391,7 +11393,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>86.44282166891928</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -22547,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>311.0134488680765</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -22598,16 +22600,16 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>258.4737091780945</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -22623,25 +22625,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>11.76792460626649</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22692,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>70.65759891194332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22787,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>37.10017927580355</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22841,16 +22843,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>225.4424436438509</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.5167362308387</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -22875,13 +22877,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.50770056809695</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22954,10 +22956,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H7" t="n">
-        <v>19.43647763297656</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>133.6035419151753</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>257.2422833530605</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -23081,13 +23083,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -23103,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>23.73869120569054</v>
+        <v>5.217619302113263</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23197,7 +23199,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,10 +23229,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>73.23022383480696</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>161.3163735339366</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.7435140675292</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>132.6811930177282</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180446</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S11" t="n">
         <v>176.6529755334452</v>
@@ -23315,10 +23317,10 @@
         <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>378.2098390737216</v>
@@ -23434,10 +23436,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
-        <v>96.70117257112861</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138467</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3089918374816</v>
+        <v>158.455770243023</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>364.7435140675288</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>52.36826251881311</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S14" t="n">
         <v>176.6529755334452</v>
@@ -23653,28 +23655,28 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9198098429365</v>
+        <v>68.24762868879795</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>142.4358999854599</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138467</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R16" t="n">
         <v>140.32293915197</v>
@@ -23707,13 +23709,13 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>364.7435140675288</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>279.0374104751655</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180446</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>82.04763384339746</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23911,7 +23913,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
-        <v>47.34362796447566</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80540818138467</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R19" t="n">
         <v>140.32293915197</v>
@@ -23941,16 +23943,16 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>105.2760496268158</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23972,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>130.7250518504025</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.5609956070679</v>
+        <v>385.2542258124004</v>
       </c>
       <c r="H20" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,13 +24028,13 @@
         <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -24148,7 +24150,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>43.84356867694852</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R22" t="n">
         <v>140.32293915197</v>
@@ -24184,16 +24186,16 @@
         <v>284.3089918374816</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>39.60668762099047</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I23" t="n">
         <v>156.363858050434</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>176.6529755334452</v>
@@ -24260,19 +24262,19 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U23" t="n">
-        <v>15.89139472996229</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>253.6926027141432</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,28 +24366,28 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>144.4943753697039</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H25" t="n">
         <v>156.2556384040709</v>
       </c>
       <c r="I25" t="n">
-        <v>137.6086505120454</v>
+        <v>37.93646935790711</v>
       </c>
       <c r="J25" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R25" t="n">
         <v>140.32293915197</v>
@@ -24418,13 +24420,13 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24443,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>364.7435140675288</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>394.9964398373025</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.73916953180445</v>
       </c>
       <c r="S26" t="n">
         <v>176.6529755334452</v>
@@ -24500,7 +24502,7 @@
         <v>252.305926837283</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
@@ -24598,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>134.4889723429187</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H28" t="n">
         <v>156.2556384040709</v>
       </c>
       <c r="I28" t="n">
-        <v>137.6086505120454</v>
+        <v>85.28009732238277</v>
       </c>
       <c r="J28" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>151.886033257274</v>
+        <v>135.5868896912282</v>
       </c>
       <c r="I29" t="n">
         <v>156.363858050434</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>176.6529755334452</v>
@@ -24734,10 +24736,10 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U29" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
@@ -24844,22 +24846,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>95.09227202098464</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>51.28366727034232</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J31" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>163.3550681249284</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
         <v>411.5609956070679</v>
       </c>
       <c r="H32" t="n">
-        <v>325.5814052293737</v>
+        <v>221.5966079759874</v>
       </c>
       <c r="I32" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3089918374816</v>
+        <v>158.4557702430232</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>103.0867178691194</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
         <v>219.8148072196457</v>
@@ -25154,10 +25156,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>51.87159526589375</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.14590077455011</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
@@ -25220,7 +25222,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,7 +25320,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -25330,10 +25332,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I37" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>208.5868485504649</v>
+        <v>40.88038799724049</v>
       </c>
       <c r="T37" t="n">
         <v>230.1151168515673</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25375,10 +25377,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>65.78772806131042</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25400,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,19 +25444,19 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T38" t="n">
-        <v>220.4433659829895</v>
+        <v>195.0837759276799</v>
       </c>
       <c r="U38" t="n">
-        <v>25.35282367174429</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>53.71959584123833</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>50.8167429421559</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -25603,19 +25605,19 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>74.4617864580843</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S41" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>173.4662483179216</v>
       </c>
       <c r="U41" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,16 +25791,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H43" t="n">
         <v>156.2556384040709</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>116.8975046787376</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>208.5868485504649</v>
@@ -25840,13 +25842,13 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>64.45616617921624</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>143.4484934648359</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>156.363858050434</v>
@@ -25916,10 +25918,10 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T44" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.305926837283</v>
+        <v>182.7927834338368</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -26035,13 +26037,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0592210434877</v>
+        <v>42.22015381873603</v>
       </c>
       <c r="H46" t="n">
         <v>156.2556384040709</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J46" t="n">
         <v>47.34362796447564</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>37.9364693579071</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>620374.6590122791</v>
+        <v>620374.6590122792</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>620374.6590122792</v>
+        <v>620374.6590122791</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>620374.6590122794</v>
+        <v>620374.659012279</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>703017.1175670229</v>
+        <v>703017.117567023</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>703017.117567023</v>
+        <v>703017.1175670228</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703017.1175670233</v>
+        <v>703017.117567023</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>703017.117567023</v>
+        <v>703017.1175670233</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703017.1175670229</v>
+        <v>703017.117567023</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>703017.1175670231</v>
+        <v>703017.1175670234</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>703017.1175670231</v>
+        <v>703017.117567023</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>703017.1175670234</v>
+        <v>703017.117567023</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>703017.117567023</v>
+        <v>703017.1175670229</v>
       </c>
     </row>
   </sheetData>
@@ -26326,16 +26328,16 @@
         <v>214591.0511962089</v>
       </c>
       <c r="G2" t="n">
-        <v>214591.051196209</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="H2" t="n">
-        <v>214591.0511962089</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="I2" t="n">
+        <v>214591.0511962087</v>
+      </c>
+      <c r="J2" t="n">
         <v>214591.0511962088</v>
-      </c>
-      <c r="J2" t="n">
-        <v>214591.0511962089</v>
       </c>
       <c r="K2" t="n">
         <v>214591.0511962089</v>
@@ -26350,10 +26352,10 @@
         <v>214591.051196209</v>
       </c>
       <c r="O2" t="n">
-        <v>214591.051196209</v>
+        <v>214591.0511962089</v>
       </c>
       <c r="P2" t="n">
-        <v>214591.051196209</v>
+        <v>214591.0511962089</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>109285.8666493011</v>
+        <v>109285.8666493013</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>137442.4307917772</v>
+        <v>137442.4307917771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27504.83665689651</v>
+        <v>27504.83665689657</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26423,19 @@
         <v>34011.00713450603</v>
       </c>
       <c r="D4" t="n">
-        <v>34011.00713450603</v>
+        <v>34011.00713450602</v>
       </c>
       <c r="E4" t="n">
         <v>34483.08084438485</v>
       </c>
       <c r="F4" t="n">
-        <v>34483.08084438485</v>
+        <v>34483.08084438484</v>
       </c>
       <c r="G4" t="n">
         <v>34483.08084438485</v>
       </c>
       <c r="H4" t="n">
-        <v>34483.08084438485</v>
+        <v>34483.08084438484</v>
       </c>
       <c r="I4" t="n">
         <v>34483.08084438485</v>
@@ -26451,7 +26453,7 @@
         <v>34483.08084438485</v>
       </c>
       <c r="N4" t="n">
-        <v>34483.08084438485</v>
+        <v>34483.08084438484</v>
       </c>
       <c r="O4" t="n">
         <v>34483.08084438485</v>
@@ -26473,13 +26475,13 @@
         <v>65566.03463691141</v>
       </c>
       <c r="D5" t="n">
-        <v>65566.03463691141</v>
+        <v>65566.0346369114</v>
       </c>
       <c r="E5" t="n">
-        <v>40720.20246230467</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="F5" t="n">
-        <v>40720.20246230467</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="G5" t="n">
         <v>40720.20246230468</v>
@@ -26494,7 +26496,7 @@
         <v>40720.20246230468</v>
       </c>
       <c r="K5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="L5" t="n">
         <v>40720.20246230468</v>
@@ -26503,13 +26505,13 @@
         <v>40720.20246230468</v>
       </c>
       <c r="N5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="O5" t="n">
         <v>40720.20246230468</v>
       </c>
       <c r="P5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87411.02204951594</v>
+        <v>-87411.02204951597</v>
       </c>
       <c r="C6" t="n">
-        <v>88630.16266801133</v>
+        <v>88630.16266801138</v>
       </c>
       <c r="D6" t="n">
-        <v>88630.16266801133</v>
+        <v>88630.1626680114</v>
       </c>
       <c r="E6" t="n">
-        <v>30101.90124021815</v>
+        <v>30101.90124021791</v>
       </c>
       <c r="F6" t="n">
+        <v>139387.7678895194</v>
+      </c>
+      <c r="G6" t="n">
         <v>139387.7678895193</v>
       </c>
-      <c r="G6" t="n">
-        <v>139387.7678895195</v>
-      </c>
       <c r="H6" t="n">
-        <v>139387.7678895194</v>
+        <v>139387.7678895193</v>
       </c>
       <c r="I6" t="n">
+        <v>139387.7678895192</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1945.337097742158</v>
+      </c>
+      <c r="K6" t="n">
         <v>139387.7678895193</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1945.33709774218</v>
-      </c>
-      <c r="K6" t="n">
-        <v>139387.7678895194</v>
       </c>
       <c r="L6" t="n">
         <v>139387.7678895193</v>
       </c>
       <c r="M6" t="n">
-        <v>111882.9312326228</v>
+        <v>111882.9312326227</v>
       </c>
       <c r="N6" t="n">
         <v>139387.7678895195</v>
       </c>
       <c r="O6" t="n">
-        <v>139387.7678895195</v>
+        <v>139387.7678895194</v>
       </c>
       <c r="P6" t="n">
         <v>139387.7678895194</v>
@@ -26744,25 +26746,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988861</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988861</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988864</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="I3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988868</v>
       </c>
       <c r="J3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988868</v>
       </c>
       <c r="K3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988868</v>
       </c>
       <c r="L3" t="n">
         <v>95.01032947988872</v>
@@ -26793,13 +26795,13 @@
         <v>525.3032012649903</v>
       </c>
       <c r="D4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649902</v>
       </c>
       <c r="E4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="F4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="G4" t="n">
         <v>635.6739684151827</v>
@@ -26814,7 +26816,7 @@
         <v>635.6739684151827</v>
       </c>
       <c r="K4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="L4" t="n">
         <v>635.6739684151827</v>
@@ -26823,13 +26825,13 @@
         <v>635.6739684151827</v>
       </c>
       <c r="N4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="O4" t="n">
         <v>635.6739684151827</v>
       </c>
       <c r="P4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988861</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>525.3032012649904</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859841</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285791</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630632</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850203</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757799</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M11" t="n">
-        <v>67.0672663971276</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410141</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911389</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736616</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531184</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504371</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689865</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J12" t="n">
-        <v>19.3077123332668</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869704</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653929</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N12" t="n">
-        <v>53.15110875309354</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806972</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.08660970927055</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488022</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S12" t="n">
-        <v>3.795931559880453</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133736</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302813</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J13" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891965</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511015</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729452</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795556</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884367</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106169</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859841</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H14" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72516875285791</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630632</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K14" t="n">
-        <v>48.58560883850203</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757799</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M14" t="n">
-        <v>67.0672663971276</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N14" t="n">
-        <v>68.15248488410141</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911389</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736616</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531184</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504371</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T14" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689865</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J15" t="n">
-        <v>19.3077123332668</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869704</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653929</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N15" t="n">
-        <v>53.15110875309354</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P15" t="n">
-        <v>39.02414834806972</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.08660970927055</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R15" t="n">
-        <v>12.68836060488022</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S15" t="n">
-        <v>3.795931559880453</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133736</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H16" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302813</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J16" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891965</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511015</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N16" t="n">
-        <v>26.21817829729452</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795556</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884367</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106169</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859842</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H17" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I17" t="n">
-        <v>14.72516875285792</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630633</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K17" t="n">
-        <v>48.58560883850205</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L17" t="n">
-        <v>60.274743997578</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712763</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N17" t="n">
-        <v>68.15248488410143</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911392</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736618</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531185</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730073</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504374</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T17" t="n">
-        <v>1.671990823309397</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287873</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2043618407680624</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689867</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J18" t="n">
-        <v>19.30771233326681</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K18" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L18" t="n">
-        <v>44.37251283869706</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M18" t="n">
-        <v>51.7806295665393</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N18" t="n">
-        <v>53.15110875309355</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712754</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P18" t="n">
-        <v>39.02414834806974</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.08660970927056</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R18" t="n">
-        <v>12.68836060488023</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S18" t="n">
-        <v>3.795931559880454</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133738</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1713301023407828</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H19" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302814</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J19" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K19" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L19" t="n">
-        <v>25.47211357891965</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85677231511016</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N19" t="n">
-        <v>26.21817829729453</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795558</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S19" t="n">
-        <v>2.985816419884368</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106171</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497253</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H20" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290091</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J20" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K20" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712768</v>
+        <v>67.0672663971277</v>
       </c>
       <c r="N20" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911399</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531189</v>
+        <v>41.2464189653119</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T20" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680626</v>
       </c>
       <c r="H21" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J21" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326683</v>
       </c>
       <c r="K21" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N21" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O21" t="n">
-        <v>48.62288059712758</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P21" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806978</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927059</v>
       </c>
       <c r="R21" t="n">
         <v>12.68836060488024</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U21" t="n">
         <v>0.01344485794526728</v>
@@ -32619,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H22" t="n">
         <v>1.523280364448053</v>
       </c>
       <c r="I22" t="n">
-        <v>5.152363441302819</v>
+        <v>5.15236344130282</v>
       </c>
       <c r="J22" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K22" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L22" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729456</v>
       </c>
       <c r="O22" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P22" t="n">
         <v>20.72159710492523</v>
@@ -32652,16 +32654,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S22" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H23" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290088</v>
       </c>
       <c r="I23" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J23" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630634</v>
       </c>
       <c r="K23" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L23" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757803</v>
       </c>
       <c r="M23" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N23" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410145</v>
       </c>
       <c r="O23" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P23" t="n">
-        <v>54.92504177736622</v>
+        <v>54.9250417773662</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R23" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S23" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504378</v>
       </c>
       <c r="T23" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309397</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287874</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32782,46 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H24" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I24" t="n">
-        <v>7.036142324689874</v>
+        <v>7.03614232468987</v>
       </c>
       <c r="J24" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K24" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L24" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M24" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N24" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309358</v>
       </c>
       <c r="O24" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712756</v>
       </c>
       <c r="P24" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806975</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927057</v>
       </c>
       <c r="R24" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488023</v>
       </c>
       <c r="S24" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133742</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32861,46 @@
         <v>0.1713301023407829</v>
       </c>
       <c r="H25" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448052</v>
       </c>
       <c r="I25" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302817</v>
       </c>
       <c r="J25" t="n">
         <v>12.11303823549335</v>
       </c>
       <c r="K25" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922913</v>
       </c>
       <c r="L25" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891966</v>
       </c>
       <c r="M25" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N25" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729454</v>
       </c>
       <c r="O25" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P25" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R25" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795561</v>
       </c>
       <c r="S25" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884369</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106175</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H26" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290088</v>
       </c>
       <c r="I26" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J26" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630634</v>
       </c>
       <c r="K26" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L26" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757803</v>
       </c>
       <c r="M26" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N26" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410145</v>
       </c>
       <c r="O26" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P26" t="n">
-        <v>54.92504177736622</v>
+        <v>54.9250417773662</v>
       </c>
       <c r="Q26" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R26" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S26" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504378</v>
       </c>
       <c r="T26" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309397</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287874</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33019,46 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H27" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I27" t="n">
-        <v>7.036142324689874</v>
+        <v>7.03614232468987</v>
       </c>
       <c r="J27" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K27" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L27" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M27" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N27" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309358</v>
       </c>
       <c r="O27" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712756</v>
       </c>
       <c r="P27" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806975</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927057</v>
       </c>
       <c r="R27" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488023</v>
       </c>
       <c r="S27" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133742</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33098,46 @@
         <v>0.1713301023407829</v>
       </c>
       <c r="H28" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448052</v>
       </c>
       <c r="I28" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302817</v>
       </c>
       <c r="J28" t="n">
         <v>12.11303823549335</v>
       </c>
       <c r="K28" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922913</v>
       </c>
       <c r="L28" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891966</v>
       </c>
       <c r="M28" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N28" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729454</v>
       </c>
       <c r="O28" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P28" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R28" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795561</v>
       </c>
       <c r="S28" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884369</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106175</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H29" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290088</v>
       </c>
       <c r="I29" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J29" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630634</v>
       </c>
       <c r="K29" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L29" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757803</v>
       </c>
       <c r="M29" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N29" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410145</v>
       </c>
       <c r="O29" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P29" t="n">
-        <v>54.92504177736622</v>
+        <v>54.9250417773662</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R29" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S29" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504378</v>
       </c>
       <c r="T29" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309397</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287874</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33256,46 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H30" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I30" t="n">
-        <v>7.036142324689874</v>
+        <v>7.03614232468987</v>
       </c>
       <c r="J30" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K30" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L30" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M30" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N30" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309358</v>
       </c>
       <c r="O30" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712756</v>
       </c>
       <c r="P30" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806975</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927057</v>
       </c>
       <c r="R30" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488023</v>
       </c>
       <c r="S30" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133742</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33335,46 @@
         <v>0.1713301023407829</v>
       </c>
       <c r="H31" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448052</v>
       </c>
       <c r="I31" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302817</v>
       </c>
       <c r="J31" t="n">
         <v>12.11303823549335</v>
       </c>
       <c r="K31" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922913</v>
       </c>
       <c r="L31" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891966</v>
       </c>
       <c r="M31" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N31" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729454</v>
       </c>
       <c r="O31" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P31" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R31" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795561</v>
       </c>
       <c r="S31" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884369</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106175</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>338.0986245924186</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,16 +35020,16 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>316.4417183543709</v>
       </c>
       <c r="M6" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>7.787477306886144</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35261,16 +35263,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5583647730072</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K11" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L11" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M11" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N11" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605623</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P11" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.8085946144125</v>
+        <v>202.8721959815271</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M12" t="n">
-        <v>541.7133098798993</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>507.6446556991193</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O12" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P12" t="n">
-        <v>344.1715415558447</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L13" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M13" t="n">
         <v>146.0421320399604</v>
@@ -35580,10 +35582,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O13" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K14" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L14" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M14" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N14" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4398977605623</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P14" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q14" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K15" t="n">
-        <v>17.42030366054503</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L15" t="n">
-        <v>413.8895281620462</v>
+        <v>86.33075059904678</v>
       </c>
       <c r="M15" t="n">
-        <v>541.7133098798993</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
-        <v>569.5810543320048</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O15" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P15" t="n">
-        <v>344.1715415558447</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q15" t="n">
         <v>185.4518923209819</v>
@@ -35805,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L16" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M16" t="n">
         <v>146.0421320399604</v>
@@ -35817,10 +35819,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O16" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>105.1434222020703</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K17" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L17" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M17" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N17" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P17" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q17" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>80.1704866091316</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.8085946144125</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L18" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M18" t="n">
-        <v>214.1545323169006</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N18" t="n">
-        <v>569.5810543320048</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O18" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P18" t="n">
-        <v>344.1715415558447</v>
+        <v>282.235142922959</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L19" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M19" t="n">
         <v>146.0421320399604</v>
@@ -36054,10 +36056,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O19" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P19" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K20" t="n">
         <v>291.1516412069695</v>
@@ -36139,7 +36141,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.8085946144125</v>
+        <v>202.8721959815267</v>
       </c>
       <c r="L21" t="n">
         <v>413.8895281620462</v>
@@ -36212,10 +36214,10 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P21" t="n">
-        <v>282.2351429229594</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L22" t="n">
         <v>127.0954261044343</v>
@@ -36291,7 +36293,7 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O22" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P22" t="n">
         <v>84.32612612324624</v>
@@ -36364,7 +36366,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M23" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N23" t="n">
         <v>450.3053724474507</v>
@@ -36373,7 +36375,7 @@
         <v>372.4398977605624</v>
       </c>
       <c r="P23" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q23" t="n">
         <v>136.6325338001977</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K24" t="n">
-        <v>17.42030366054508</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L24" t="n">
         <v>413.8895281620462</v>
@@ -36446,13 +36448,13 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N24" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690061</v>
       </c>
       <c r="O24" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P24" t="n">
-        <v>344.1715415558448</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q24" t="n">
         <v>185.4518923209819</v>
@@ -36531,7 +36533,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P25" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M26" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N26" t="n">
         <v>450.3053724474507</v>
@@ -36610,7 +36612,7 @@
         <v>372.4398977605624</v>
       </c>
       <c r="P26" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q26" t="n">
         <v>136.6325338001977</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>17.42030366054508</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L27" t="n">
         <v>413.8895281620462</v>
@@ -36683,16 +36685,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N27" t="n">
-        <v>569.5810543320048</v>
+        <v>507.6446556991198</v>
       </c>
       <c r="O27" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P27" t="n">
-        <v>344.1715415558448</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q27" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36768,7 +36770,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P28" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M29" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N29" t="n">
         <v>450.3053724474507</v>
@@ -36847,7 +36849,7 @@
         <v>372.4398977605624</v>
       </c>
       <c r="P29" t="n">
-        <v>285.3865533491372</v>
+        <v>285.386553349137</v>
       </c>
       <c r="Q29" t="n">
         <v>136.6325338001977</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>122.7017093723955</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L30" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M30" t="n">
-        <v>541.7133098798994</v>
+        <v>294.3250189260318</v>
       </c>
       <c r="N30" t="n">
         <v>569.5810543320048</v>
@@ -36926,10 +36928,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P30" t="n">
-        <v>344.1715415558448</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37005,7 +37007,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P31" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>80.17048660913161</v>
       </c>
       <c r="K33" t="n">
-        <v>122.7017093723955</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L33" t="n">
         <v>413.8895281620462</v>
@@ -37157,7 +37159,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N33" t="n">
-        <v>569.5810543320048</v>
+        <v>427.474169089988</v>
       </c>
       <c r="O33" t="n">
         <v>444.7844470457648</v>
@@ -37324,7 +37326,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q35" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001976</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L36" t="n">
-        <v>351.1393452134597</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M36" t="n">
         <v>541.7133098798994</v>
@@ -37400,10 +37402,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P36" t="n">
-        <v>344.1715415558448</v>
+        <v>282.2351429229594</v>
       </c>
       <c r="Q36" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>105.1434222020699</v>
+        <v>105.1434222020694</v>
       </c>
       <c r="K38" t="n">
         <v>291.1516412069695</v>
@@ -37622,13 +37624,13 @@
         <v>80.17048660913161</v>
       </c>
       <c r="K39" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M39" t="n">
-        <v>541.7133098798994</v>
+        <v>478.9631269313124</v>
       </c>
       <c r="N39" t="n">
         <v>569.5810543320048</v>
@@ -37637,10 +37639,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P39" t="n">
-        <v>202.0646563138277</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O41" t="n">
-        <v>372.4398977605626</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P41" t="n">
         <v>285.3865533491372</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054508</v>
       </c>
       <c r="L42" t="n">
-        <v>86.33075059904719</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M42" t="n">
         <v>541.7133098798994</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020694</v>
       </c>
       <c r="K44" t="n">
         <v>291.1516412069695</v>
@@ -38035,7 +38037,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q44" t="n">
-        <v>136.6325338001976</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,7 +38104,7 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M45" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323168998</v>
       </c>
       <c r="N45" t="n">
         <v>569.5810543320048</v>
@@ -38111,7 +38113,7 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P45" t="n">
-        <v>16.61276399284572</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q45" t="n">
         <v>185.4518923209819</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>710167.3764443385</v>
+        <v>650707.0944699135</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>559512.0876269371</v>
+        <v>559512.0876269373</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10316995.04692717</v>
+        <v>10316995.04692716</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>400.1075170686343</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>100.4358716628804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5789354633579</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.57315202520407</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>128.9874563185103</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>156.1523177048205</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>133.4671371971241</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -980,22 +980,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>29.19076188874265</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>235.4921832098733</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>204.4030046845691</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>128.1292407675111</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>70.26067323799711</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.53079011854133</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>192.9002122116455</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>161.7066889297818</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T12" t="n">
         <v>185.9745311655613</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>125.8532215944586</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>99.67218115413844</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.35959005531015</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
-        <v>156.363858050434</v>
+        <v>20.92171335792152</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S15" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T15" t="n">
         <v>185.9745311655613</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>99.67218115413856</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>124.8390672247516</v>
       </c>
       <c r="U16" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>132.5235851319025</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H17" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180442</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>96.59561947420569</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.2368531361802</v>
+        <v>127.2368531361799</v>
       </c>
       <c r="H18" t="n">
         <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S18" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T18" t="n">
         <v>185.9745311655613</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.67218115413856</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>99.67218115413833</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>26.30676979466757</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
         <v>325.5814052293737</v>
       </c>
       <c r="I20" t="n">
-        <v>156.363858050434</v>
+        <v>154.1680183248776</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S21" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T21" t="n">
         <v>185.9745311655613</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>99.67218115413833</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V22" t="n">
-        <v>218.5212637761711</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>97.99823451450412</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.73916953180445</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>105.2169781268318</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S24" t="n">
         <v>147.4755605575067</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>99.67218115413833</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>218.8386712885585</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>13.37090701299181</v>
+        <v>364.5859061817026</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>325.5814052293737</v>
       </c>
       <c r="I26" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>52.32855318966267</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.34362796447565</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>284.3089918374816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>99.67218115413833</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -2797,10 +2797,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
@@ -2809,10 +2809,10 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H29" t="n">
-        <v>189.9945155381455</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>23.46196328908798</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.73916953180445</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U29" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>99.67218115413833</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>4.895282524210165</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H32" t="n">
-        <v>103.9847972533863</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>156.363858050434</v>
@@ -3088,7 +3088,7 @@
         <v>252.305926837283</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S33" t="n">
         <v>147.4755605575067</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U34" t="n">
-        <v>125.8532215944585</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>12.52896261837598</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>317.2241298591549</v>
+        <v>149.270457532326</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -3283,10 +3283,10 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H35" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I36" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013215034</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.7064605532244</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>125.8532215944585</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>325.5814052293737</v>
+        <v>312.0528903305561</v>
       </c>
       <c r="I38" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T38" t="n">
-        <v>25.3595900553097</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>99.67218115413844</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H41" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>25.4414465661726</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97711766506791</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U41" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3942,31 +3942,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3089918374816</v>
+        <v>238.8743546892842</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.8386712885586</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>183.0536260745866</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U44" t="n">
-        <v>69.51314340344621</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4464129140234</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>124.8390672247517</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.718890124891</v>
+        <v>840.958983135127</v>
       </c>
       <c r="C2" t="n">
-        <v>1223.785131457699</v>
+        <v>840.958983135127</v>
       </c>
       <c r="D2" t="n">
-        <v>850.9611666849221</v>
+        <v>840.958983135127</v>
       </c>
       <c r="E2" t="n">
-        <v>456.1754467910289</v>
+        <v>446.1732632412339</v>
       </c>
       <c r="F2" t="n">
         <v>42.02425610119923</v>
@@ -4327,7 +4327,7 @@
         <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J2" t="n">
         <v>114.0228003740049</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W2" t="n">
-        <v>1999.76242964291</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X2" t="n">
-        <v>1999.76242964291</v>
+        <v>1628.544378077308</v>
       </c>
       <c r="Y2" t="n">
-        <v>1999.76242964291</v>
+        <v>1235.002522653146</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C3" t="n">
-        <v>461.879904359699</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D3" t="n">
-        <v>461.879904359699</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E3" t="n">
-        <v>461.879904359699</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="G3" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K3" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L3" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V3" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W3" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X3" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y3" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="C4" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="G4" t="n">
         <v>42.02425610119923</v>
@@ -4509,31 +4509,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>42.02425610119923</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="W4" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="X4" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.02425610119923</v>
+        <v>53.71430865191041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>796.7819795411683</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="C5" t="n">
-        <v>414.8482208739757</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="D5" t="n">
-        <v>42.02425610119923</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="E5" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F5" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G5" t="n">
         <v>42.02425610119923</v>
@@ -4570,16 +4570,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>1852.844904712562</v>
       </c>
       <c r="T5" t="n">
-        <v>2101.212805059961</v>
+        <v>1628.485958443573</v>
       </c>
       <c r="U5" t="n">
-        <v>2101.212805059961</v>
+        <v>1628.485958443573</v>
       </c>
       <c r="V5" t="n">
-        <v>2101.212805059961</v>
+        <v>1628.485958443573</v>
       </c>
       <c r="W5" t="n">
-        <v>1966.397514961856</v>
+        <v>1628.485958443573</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.36737448335</v>
+        <v>1246.455817965066</v>
       </c>
       <c r="Y5" t="n">
-        <v>1190.825519059187</v>
+        <v>852.9139625409043</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C6" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D6" t="n">
-        <v>300.1762316006536</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E6" t="n">
-        <v>300.1762316006536</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F6" t="n">
-        <v>300.1762316006536</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G6" t="n">
-        <v>171.4477316239382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H6" t="n">
-        <v>71.50987417063625</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L6" t="n">
-        <v>645.0462563653213</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M6" t="n">
-        <v>1130.079609875548</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N6" t="n">
-        <v>1641.34525599867</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O6" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P6" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4758,19 +4758,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2010.574518555814</v>
+        <v>1441.315402707662</v>
       </c>
       <c r="C8" t="n">
-        <v>2010.574518555814</v>
+        <v>1059.381644040469</v>
       </c>
       <c r="D8" t="n">
-        <v>1772.703626424629</v>
+        <v>1059.381644040469</v>
       </c>
       <c r="E8" t="n">
-        <v>1377.917906530736</v>
+        <v>664.595924146576</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>664.595924146576</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>248.4919376007639</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
-        <v>42.02425610119922</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740048</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187876</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037339</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
         <v>1095.287711756822</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555814</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555814</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555814</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555814</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.574518555814</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W8" t="n">
-        <v>2010.574518555814</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.574518555814</v>
+        <v>1441.315402707662</v>
       </c>
       <c r="Y8" t="n">
-        <v>2010.574518555814</v>
+        <v>1441.315402707662</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.8799043596985</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006532</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D9" t="n">
-        <v>300.1762316006532</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="E9" t="n">
-        <v>300.1762316006532</v>
+        <v>212.9324905625791</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7527560779147</v>
+        <v>212.9324905625791</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119922</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119922</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
-        <v>42.02425610119922</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>49.7338586350165</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>279.2244111952052</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>645.0462563653208</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1130.079609875547</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1641.345255998669</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.345255998669</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931942</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613586</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913806</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409594</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
-        <v>42.02425610119922</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K10" t="n">
         <v>75.62844384584264</v>
@@ -4983,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>102.0814946870265</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>102.0814946870265</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="V10" t="n">
-        <v>102.0814946870265</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1843.181669414273</v>
+        <v>1648.332970210591</v>
       </c>
       <c r="C11" t="n">
-        <v>1843.181669414273</v>
+        <v>1648.332970210591</v>
       </c>
       <c r="D11" t="n">
-        <v>1470.357704641497</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E11" t="n">
-        <v>1075.571984747603</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F11" t="n">
-        <v>661.4207940577737</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G11" t="n">
-        <v>245.702616676897</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H11" t="n">
         <v>50.85391747321462</v>
@@ -5041,19 +5041,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532634</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L11" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O11" t="n">
         <v>2124.896977382889</v>
@@ -5071,22 +5071,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T11" t="n">
-        <v>2542.695873660731</v>
+        <v>2379.355783832668</v>
       </c>
       <c r="U11" t="n">
-        <v>2542.695873660731</v>
+        <v>2379.355783832668</v>
       </c>
       <c r="V11" t="n">
-        <v>2205.716599556672</v>
+        <v>2042.37650972861</v>
       </c>
       <c r="W11" t="n">
-        <v>1843.181669414273</v>
+        <v>2042.37650972861</v>
       </c>
       <c r="X11" t="n">
-        <v>1843.181669414273</v>
+        <v>2042.37650972861</v>
       </c>
       <c r="Y11" t="n">
-        <v>1843.181669414273</v>
+        <v>2042.37650972861</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C12" t="n">
-        <v>759.1557230830587</v>
+        <v>759.155723083059</v>
       </c>
       <c r="D12" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E12" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H12" t="n">
         <v>112.1289883137699</v>
@@ -5123,10 +5123,10 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K12" t="n">
-        <v>251.6973914949265</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L12" t="n">
-        <v>661.4480243753522</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M12" t="n">
         <v>1197.744201156453</v>
@@ -5147,19 +5147,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S12" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T12" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U12" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V12" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W12" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X12" t="n">
         <v>1272.800164973786</v>
@@ -5208,37 +5208,37 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N13" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O13" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P13" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q13" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R13" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S13" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T13" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U13" t="n">
-        <v>597.7456233973928</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="V13" t="n">
-        <v>337.0103189558155</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="W13" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359807</v>
       </c>
       <c r="X13" t="n">
         <v>50.85391747321462</v>
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2517.080126130114</v>
+        <v>773.6810323341681</v>
       </c>
       <c r="C14" t="n">
-        <v>2135.146367462922</v>
+        <v>773.6810323341681</v>
       </c>
       <c r="D14" t="n">
-        <v>1762.322402690145</v>
+        <v>400.8570675613917</v>
       </c>
       <c r="E14" t="n">
-        <v>1367.536682796252</v>
+        <v>400.8570675613917</v>
       </c>
       <c r="F14" t="n">
-        <v>953.3854921064224</v>
+        <v>400.8570675613917</v>
       </c>
       <c r="G14" t="n">
-        <v>537.6673147255457</v>
+        <v>400.8570675613917</v>
       </c>
       <c r="H14" t="n">
-        <v>208.797208433249</v>
+        <v>71.98696126909493</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481635</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L14" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O14" t="n">
         <v>2124.896977382889</v>
@@ -5299,31 +5299,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R14" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S14" t="n">
-        <v>2542.695873660731</v>
+        <v>2364.258524637048</v>
       </c>
       <c r="T14" t="n">
-        <v>2542.695873660731</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="U14" t="n">
-        <v>2542.695873660731</v>
+        <v>1886.733986434753</v>
       </c>
       <c r="V14" t="n">
-        <v>2542.695873660731</v>
+        <v>1549.754712330694</v>
       </c>
       <c r="W14" t="n">
-        <v>2542.695873660731</v>
+        <v>1549.754712330694</v>
       </c>
       <c r="X14" t="n">
-        <v>2542.695873660731</v>
+        <v>1167.724571852187</v>
       </c>
       <c r="Y14" t="n">
-        <v>2542.695873660731</v>
+        <v>1167.724571852187</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D15" t="n">
         <v>620.3170860732707</v>
@@ -5354,16 +5354,16 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I15" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J15" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K15" t="n">
-        <v>392.3832078845234</v>
+        <v>68.10001809715419</v>
       </c>
       <c r="L15" t="n">
-        <v>477.8506509775797</v>
+        <v>477.8506509775799</v>
       </c>
       <c r="M15" t="n">
         <v>1014.14682775868</v>
@@ -5375,10 +5375,10 @@
         <v>2018.368674122672</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.098500262959</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q15" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R15" t="n">
         <v>2495.728130619192</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.5328883359808</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="C16" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D16" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E16" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F16" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G16" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H16" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I16" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J16" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K16" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L16" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N16" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O16" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P16" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q16" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R16" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S16" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T16" t="n">
-        <v>724.8700896544217</v>
+        <v>598.7700217506319</v>
       </c>
       <c r="U16" t="n">
-        <v>437.6892898185817</v>
+        <v>311.589221914792</v>
       </c>
       <c r="V16" t="n">
-        <v>437.6892898185817</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="W16" t="n">
-        <v>151.5328883359808</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="X16" t="n">
-        <v>151.5328883359808</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.5328883359808</v>
+        <v>50.85391747321461</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1426.287245369457</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="C17" t="n">
-        <v>1044.353486702264</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D17" t="n">
-        <v>671.5295219294876</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E17" t="n">
-        <v>671.5295219294876</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F17" t="n">
-        <v>671.5295219294876</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G17" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H17" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J17" t="n">
-        <v>154.9459054532634</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K17" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L17" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N17" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O17" t="n">
         <v>2124.896977382889</v>
@@ -5536,31 +5536,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R17" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S17" t="n">
-        <v>2297.855323089771</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T17" t="n">
-        <v>2075.185256440287</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="U17" t="n">
-        <v>1820.330784887476</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="V17" t="n">
-        <v>1820.330784887476</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="W17" t="n">
-        <v>1820.330784887476</v>
+        <v>2445.124540858502</v>
       </c>
       <c r="X17" t="n">
-        <v>1820.330784887476</v>
+        <v>2063.094400379995</v>
       </c>
       <c r="Y17" t="n">
-        <v>1820.330784887476</v>
+        <v>1669.552544955833</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421036</v>
       </c>
       <c r="C18" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830583</v>
       </c>
       <c r="D18" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732704</v>
       </c>
       <c r="E18" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301416</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5952780800163</v>
+        <v>338.595278080016</v>
       </c>
       <c r="G18" t="n">
         <v>210.0732042050868</v>
@@ -5591,34 +5591,34 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I18" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J18" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K18" t="n">
-        <v>313.0144261414831</v>
+        <v>251.6973914949261</v>
       </c>
       <c r="L18" t="n">
-        <v>722.7650590219089</v>
+        <v>661.4480243753518</v>
       </c>
       <c r="M18" t="n">
-        <v>1259.061235803009</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N18" t="n">
-        <v>1822.946479591694</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O18" t="n">
-        <v>2263.283082167001</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P18" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q18" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.728130619192</v>
+        <v>2495.728130619191</v>
       </c>
       <c r="S18" t="n">
         <v>2346.762917934841</v>
@@ -5639,7 +5639,7 @@
         <v>1272.800164973786</v>
       </c>
       <c r="Y18" t="n">
-        <v>1080.278838623365</v>
+        <v>1080.278838623364</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="C19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K19" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L19" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M19" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N19" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O19" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="U19" t="n">
-        <v>437.6892898185817</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="V19" t="n">
-        <v>437.6892898185817</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W19" t="n">
-        <v>151.5328883359808</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="X19" t="n">
-        <v>151.5328883359808</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.5328883359808</v>
+        <v>50.85391747321461</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1755.11047871855</v>
+        <v>1323.991436954394</v>
       </c>
       <c r="C20" t="n">
-        <v>1373.176720051357</v>
+        <v>1323.991436954394</v>
       </c>
       <c r="D20" t="n">
-        <v>1373.176720051357</v>
+        <v>951.167472181618</v>
       </c>
       <c r="E20" t="n">
-        <v>978.3910001574638</v>
+        <v>951.167472181618</v>
       </c>
       <c r="F20" t="n">
-        <v>564.2398094676341</v>
+        <v>951.167472181618</v>
       </c>
       <c r="G20" t="n">
-        <v>537.6673147255457</v>
+        <v>535.4492948007412</v>
       </c>
       <c r="H20" t="n">
-        <v>208.797208433249</v>
+        <v>206.5791885084445</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O20" t="n">
         <v>2124.896977382889</v>
@@ -5773,31 +5773,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R20" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="S20" t="n">
-        <v>2542.695873660731</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T20" t="n">
-        <v>2542.695873660731</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="U20" t="n">
-        <v>2542.695873660731</v>
+        <v>2043.00085153696</v>
       </c>
       <c r="V20" t="n">
-        <v>2542.695873660731</v>
+        <v>1706.021577432901</v>
       </c>
       <c r="W20" t="n">
-        <v>2542.695873660731</v>
+        <v>1706.021577432901</v>
       </c>
       <c r="X20" t="n">
-        <v>2542.695873660731</v>
+        <v>1323.991436954394</v>
       </c>
       <c r="Y20" t="n">
-        <v>2149.154018236569</v>
+        <v>1323.991436954394</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I21" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J21" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K21" t="n">
-        <v>251.697391494926</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L21" t="n">
-        <v>661.4480243753518</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.744201156452</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N21" t="n">
         <v>1761.629444945137</v>
       </c>
       <c r="O21" t="n">
-        <v>2201.966047520444</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P21" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q21" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R21" t="n">
         <v>2495.728130619192</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="C22" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="D22" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="E22" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="F22" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="G22" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="H22" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I22" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J22" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K22" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L22" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M22" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N22" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O22" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="U22" t="n">
-        <v>724.8700896544216</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="V22" t="n">
-        <v>504.1415403855618</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="W22" t="n">
-        <v>504.1415403855618</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="X22" t="n">
-        <v>272.8890762809376</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.85391747321462</v>
+        <v>151.5328883359806</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1200.397360807077</v>
+        <v>1532.440412069065</v>
       </c>
       <c r="C23" t="n">
-        <v>818.4636021398842</v>
+        <v>1532.440412069065</v>
       </c>
       <c r="D23" t="n">
-        <v>445.6396373671078</v>
+        <v>1433.452296397849</v>
       </c>
       <c r="E23" t="n">
-        <v>50.85391747321462</v>
+        <v>1038.666576503955</v>
       </c>
       <c r="F23" t="n">
-        <v>50.85391747321462</v>
+        <v>624.5153858141257</v>
       </c>
       <c r="G23" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="H23" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J23" t="n">
         <v>154.9459054532635</v>
       </c>
       <c r="K23" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L23" t="n">
         <v>850.7433998907118</v>
@@ -6010,31 +6010,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R23" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S23" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T23" t="n">
-        <v>2476.292672113454</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U23" t="n">
-        <v>2476.292672113454</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V23" t="n">
-        <v>2476.292672113454</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="W23" t="n">
-        <v>2370.012896227765</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="X23" t="n">
-        <v>1987.982755749258</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="Y23" t="n">
-        <v>1594.440900325096</v>
+        <v>1926.483951587084</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I24" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J24" t="n">
         <v>130.2226992162549</v>
       </c>
       <c r="K24" t="n">
-        <v>392.3832078845233</v>
+        <v>251.6973914949261</v>
       </c>
       <c r="L24" t="n">
-        <v>802.133840764949</v>
+        <v>661.4480243753518</v>
       </c>
       <c r="M24" t="n">
-        <v>1338.430017546049</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N24" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O24" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P24" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q24" t="n">
         <v>2542.695873660731</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="C25" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E25" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F25" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G25" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I25" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J25" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K25" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L25" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M25" t="n">
         <v>374.5706761520456</v>
@@ -6168,31 +6168,31 @@
         <v>724.8700896544215</v>
       </c>
       <c r="Q25" t="n">
-        <v>724.8700896544215</v>
+        <v>700.824222804538</v>
       </c>
       <c r="R25" t="n">
-        <v>724.8700896544215</v>
+        <v>559.0838802267905</v>
       </c>
       <c r="S25" t="n">
-        <v>724.8700896544215</v>
+        <v>559.0838802267905</v>
       </c>
       <c r="T25" t="n">
-        <v>724.8700896544215</v>
+        <v>559.0838802267905</v>
       </c>
       <c r="U25" t="n">
-        <v>437.6892898185815</v>
+        <v>271.9030803909505</v>
       </c>
       <c r="V25" t="n">
-        <v>437.6892898185815</v>
+        <v>271.9030803909505</v>
       </c>
       <c r="W25" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="X25" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="Y25" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2148.652334142711</v>
+        <v>1120.816580641018</v>
       </c>
       <c r="C26" t="n">
-        <v>2135.146367462922</v>
+        <v>752.5479885382878</v>
       </c>
       <c r="D26" t="n">
-        <v>1762.322402690145</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="E26" t="n">
-        <v>1367.536682796252</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="F26" t="n">
-        <v>953.3854921064224</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="G26" t="n">
-        <v>537.6673147255457</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H26" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J26" t="n">
         <v>154.9459054532635</v>
       </c>
       <c r="K26" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L26" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M26" t="n">
         <v>1310.379159876956</v>
@@ -6247,31 +6247,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R26" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="S26" t="n">
-        <v>2542.695873660731</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T26" t="n">
-        <v>2542.695873660731</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U26" t="n">
-        <v>2542.695873660731</v>
+        <v>1820.330784887475</v>
       </c>
       <c r="V26" t="n">
-        <v>2542.695873660731</v>
+        <v>1483.351510783417</v>
       </c>
       <c r="W26" t="n">
-        <v>2542.695873660731</v>
+        <v>1120.816580641018</v>
       </c>
       <c r="X26" t="n">
-        <v>2542.695873660731</v>
+        <v>1120.816580641018</v>
       </c>
       <c r="Y26" t="n">
-        <v>2542.695873660731</v>
+        <v>1120.816580641018</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C27" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D27" t="n">
         <v>620.3170860732707</v>
@@ -6293,7 +6293,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F27" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G27" t="n">
         <v>210.0732042050868</v>
@@ -6302,10 +6302,10 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I27" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J27" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K27" t="n">
         <v>313.014426141483</v>
@@ -6317,16 +6317,16 @@
         <v>1259.061235803009</v>
       </c>
       <c r="N27" t="n">
-        <v>1761.629444945137</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O27" t="n">
-        <v>2201.966047520445</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P27" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q27" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R27" t="n">
         <v>2495.728130619192</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="C28" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E28" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F28" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G28" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I28" t="n">
-        <v>98.6757639019779</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J28" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K28" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L28" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M28" t="n">
         <v>374.5706761520456</v>
@@ -6420,16 +6420,16 @@
         <v>437.6892898185815</v>
       </c>
       <c r="V28" t="n">
-        <v>437.6892898185815</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W28" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="X28" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.5328883359806</v>
+        <v>50.85391747321461</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1827.394661042623</v>
+        <v>1681.141716922268</v>
       </c>
       <c r="C29" t="n">
-        <v>1445.46090237543</v>
+        <v>1299.207958255075</v>
       </c>
       <c r="D29" t="n">
-        <v>1072.636937602654</v>
+        <v>1299.207958255075</v>
       </c>
       <c r="E29" t="n">
-        <v>1072.636937602654</v>
+        <v>904.4222383611816</v>
       </c>
       <c r="F29" t="n">
-        <v>658.4857469128242</v>
+        <v>490.2710476713519</v>
       </c>
       <c r="G29" t="n">
-        <v>242.7675695319475</v>
+        <v>74.5528702904752</v>
       </c>
       <c r="H29" t="n">
-        <v>50.85391747321461</v>
+        <v>74.5528702904752</v>
       </c>
       <c r="I29" t="n">
         <v>50.85391747321461</v>
@@ -6490,25 +6490,25 @@
         <v>2476.292672113453</v>
       </c>
       <c r="S29" t="n">
-        <v>2476.292672113453</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T29" t="n">
-        <v>2476.292672113453</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U29" t="n">
-        <v>2221.438200560642</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="V29" t="n">
-        <v>2221.438200560642</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="W29" t="n">
-        <v>2221.438200560642</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="X29" t="n">
-        <v>2221.438200560642</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2221.438200560642</v>
+        <v>2075.185256440287</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421036</v>
       </c>
       <c r="C30" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830583</v>
       </c>
       <c r="D30" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732704</v>
       </c>
       <c r="E30" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301416</v>
       </c>
       <c r="F30" t="n">
-        <v>338.5952780800163</v>
+        <v>338.595278080016</v>
       </c>
       <c r="G30" t="n">
-        <v>210.0732042050867</v>
+        <v>210.0732042050865</v>
       </c>
       <c r="H30" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137696</v>
       </c>
       <c r="I30" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321431</v>
       </c>
       <c r="J30" t="n">
         <v>50.85391747321461</v>
@@ -6551,22 +6551,22 @@
         <v>722.7650590219087</v>
       </c>
       <c r="M30" t="n">
-        <v>1014.14682775868</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N30" t="n">
-        <v>1578.032071547365</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O30" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P30" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q30" t="n">
         <v>2542.69587366073</v>
       </c>
       <c r="R30" t="n">
-        <v>2495.728130619192</v>
+        <v>2495.728130619191</v>
       </c>
       <c r="S30" t="n">
         <v>2346.762917934841</v>
@@ -6587,7 +6587,7 @@
         <v>1272.800164973786</v>
       </c>
       <c r="Y30" t="n">
-        <v>1080.278838623365</v>
+        <v>1080.278838623364</v>
       </c>
     </row>
     <row r="31">
@@ -6609,7 +6609,7 @@
         <v>151.5328883359806</v>
       </c>
       <c r="F31" t="n">
-        <v>50.85391747321461</v>
+        <v>151.5328883359806</v>
       </c>
       <c r="G31" t="n">
         <v>50.85391747321461</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>695.7661158412359</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="C32" t="n">
-        <v>313.8323571740432</v>
+        <v>1438.397026220283</v>
       </c>
       <c r="D32" t="n">
-        <v>313.8323571740432</v>
+        <v>1433.452296397849</v>
       </c>
       <c r="E32" t="n">
-        <v>313.8323571740432</v>
+        <v>1038.666576503955</v>
       </c>
       <c r="F32" t="n">
-        <v>313.8323571740432</v>
+        <v>624.5153858141257</v>
       </c>
       <c r="G32" t="n">
-        <v>313.8323571740432</v>
+        <v>208.797208433249</v>
       </c>
       <c r="H32" t="n">
         <v>208.797208433249</v>
@@ -6700,13 +6700,13 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J32" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K32" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L32" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907115</v>
       </c>
       <c r="M32" t="n">
         <v>1310.379159876956</v>
@@ -6736,16 +6736,16 @@
         <v>1820.330784887476</v>
       </c>
       <c r="V32" t="n">
-        <v>1483.351510783417</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="W32" t="n">
-        <v>1483.351510783417</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="X32" t="n">
-        <v>1483.351510783417</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="Y32" t="n">
-        <v>1089.809655359255</v>
+        <v>1820.330784887476</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C33" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D33" t="n">
         <v>620.3170860732707</v>
@@ -6767,7 +6767,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F33" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G33" t="n">
         <v>210.0732042050868</v>
@@ -6791,7 +6791,7 @@
         <v>1338.430017546049</v>
       </c>
       <c r="N33" t="n">
-        <v>1761.629444945137</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O33" t="n">
         <v>2201.966047520445</v>
@@ -6882,25 +6882,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="R34" t="n">
-        <v>724.8700896544216</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="S34" t="n">
-        <v>724.8700896544216</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="T34" t="n">
-        <v>724.8700896544216</v>
+        <v>350.690235105394</v>
       </c>
       <c r="U34" t="n">
-        <v>597.7456233973928</v>
+        <v>63.50943526955399</v>
       </c>
       <c r="V34" t="n">
-        <v>337.0103189558155</v>
+        <v>63.50943526955399</v>
       </c>
       <c r="W34" t="n">
-        <v>50.85391747321462</v>
+        <v>63.50943526955399</v>
       </c>
       <c r="X34" t="n">
-        <v>50.85391747321462</v>
+        <v>63.50943526955399</v>
       </c>
       <c r="Y34" t="n">
         <v>50.85391747321462</v>
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2082.750816689292</v>
+        <v>1426.287245369457</v>
       </c>
       <c r="C35" t="n">
-        <v>2082.750816689292</v>
+        <v>1426.287245369457</v>
       </c>
       <c r="D35" t="n">
-        <v>1762.322402690145</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E35" t="n">
-        <v>1367.536682796252</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F35" t="n">
-        <v>953.3854921064224</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G35" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H35" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I35" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J35" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K35" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481637</v>
       </c>
       <c r="L35" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907123</v>
       </c>
       <c r="M35" t="n">
-        <v>1310.379159876956</v>
+        <v>1310.379159876957</v>
       </c>
       <c r="N35" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O35" t="n">
         <v>2124.896977382889</v>
@@ -6964,25 +6964,25 @@
         <v>2476.292672113454</v>
       </c>
       <c r="S35" t="n">
-        <v>2476.292672113454</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T35" t="n">
-        <v>2476.292672113454</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U35" t="n">
-        <v>2476.292672113454</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="V35" t="n">
-        <v>2476.292672113454</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="W35" t="n">
-        <v>2476.292672113454</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="X35" t="n">
-        <v>2476.292672113454</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="Y35" t="n">
-        <v>2082.750816689292</v>
+        <v>1820.330784887476</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.859395842104</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C36" t="n">
-        <v>759.1557230830588</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D36" t="n">
-        <v>620.3170860732708</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E36" t="n">
-        <v>473.2890761301421</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F36" t="n">
-        <v>338.5952780800164</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G36" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050874</v>
       </c>
       <c r="H36" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137705</v>
       </c>
       <c r="I36" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J36" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K36" t="n">
-        <v>313.014426141483</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L36" t="n">
-        <v>722.7650590219088</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M36" t="n">
-        <v>1259.061235803009</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N36" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O36" t="n">
-        <v>2263.283082167001</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P36" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q36" t="n">
         <v>2542.695873660731</v>
@@ -7049,13 +7049,13 @@
         <v>2158.909856151447</v>
       </c>
       <c r="U36" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V36" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W36" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X36" t="n">
         <v>1272.800164973786</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2207.509199027822</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C37" t="n">
-        <v>2207.509199027822</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D37" t="n">
-        <v>2207.509199027822</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E37" t="n">
-        <v>2055.500184789141</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F37" t="n">
-        <v>2055.500184789141</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G37" t="n">
-        <v>2055.500184789141</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H37" t="n">
-        <v>2055.500184789141</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I37" t="n">
-        <v>1916.501547908287</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J37" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K37" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L37" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M37" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N37" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O37" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P37" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q37" t="n">
-        <v>2518.650006810847</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R37" t="n">
-        <v>2376.9096642331</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S37" t="n">
-        <v>2207.509199027822</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T37" t="n">
-        <v>2207.509199027822</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="U37" t="n">
-        <v>2207.509199027822</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="V37" t="n">
-        <v>2207.509199027822</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W37" t="n">
-        <v>2207.509199027822</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X37" t="n">
-        <v>2207.509199027822</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y37" t="n">
-        <v>2207.509199027822</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2517.080126130114</v>
+        <v>1120.816580641018</v>
       </c>
       <c r="C38" t="n">
-        <v>2135.146367462922</v>
+        <v>738.8828219738255</v>
       </c>
       <c r="D38" t="n">
-        <v>1762.322402690145</v>
+        <v>366.058857201049</v>
       </c>
       <c r="E38" t="n">
-        <v>1367.536682796252</v>
+        <v>366.058857201049</v>
       </c>
       <c r="F38" t="n">
-        <v>953.3854921064224</v>
+        <v>366.058857201049</v>
       </c>
       <c r="G38" t="n">
-        <v>537.6673147255457</v>
+        <v>366.058857201049</v>
       </c>
       <c r="H38" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J38" t="n">
-        <v>154.9459054532633</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K38" t="n">
-        <v>443.1860302481631</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L38" t="n">
-        <v>850.7433998907117</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M38" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N38" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O38" t="n">
         <v>2124.896977382889</v>
@@ -7195,31 +7195,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R38" t="n">
-        <v>2542.69587366073</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S38" t="n">
-        <v>2542.69587366073</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T38" t="n">
-        <v>2517.080126130114</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U38" t="n">
-        <v>2517.080126130114</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="V38" t="n">
-        <v>2517.080126130114</v>
+        <v>1483.351510783417</v>
       </c>
       <c r="W38" t="n">
-        <v>2517.080126130114</v>
+        <v>1120.816580641018</v>
       </c>
       <c r="X38" t="n">
-        <v>2517.080126130114</v>
+        <v>1120.816580641018</v>
       </c>
       <c r="Y38" t="n">
-        <v>2517.080126130114</v>
+        <v>1120.816580641018</v>
       </c>
     </row>
     <row r="39">
@@ -7241,7 +7241,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F39" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G39" t="n">
         <v>210.0732042050868</v>
@@ -7250,28 +7250,28 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I39" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J39" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K39" t="n">
-        <v>130.2226992162549</v>
+        <v>251.697391494926</v>
       </c>
       <c r="L39" t="n">
-        <v>539.9733320966807</v>
+        <v>661.4480243753518</v>
       </c>
       <c r="M39" t="n">
-        <v>1014.14682775868</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O39" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P39" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q39" t="n">
         <v>2542.69587366073</v>
@@ -7317,22 +7317,22 @@
         <v>151.5328883359807</v>
       </c>
       <c r="E40" t="n">
-        <v>50.85391747321461</v>
+        <v>151.5328883359807</v>
       </c>
       <c r="F40" t="n">
-        <v>50.85391747321461</v>
+        <v>151.5328883359807</v>
       </c>
       <c r="G40" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H40" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I40" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J40" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K40" t="n">
         <v>104.1644935890949</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1147.333708432181</v>
+        <v>1683.141194979929</v>
       </c>
       <c r="C41" t="n">
-        <v>1147.333708432181</v>
+        <v>1301.207436312736</v>
       </c>
       <c r="D41" t="n">
-        <v>774.5097436594044</v>
+        <v>1301.207436312736</v>
       </c>
       <c r="E41" t="n">
-        <v>379.7240237655113</v>
+        <v>906.4217164188428</v>
       </c>
       <c r="F41" t="n">
-        <v>379.7240237655113</v>
+        <v>492.2705257290132</v>
       </c>
       <c r="G41" t="n">
-        <v>379.7240237655113</v>
+        <v>76.55234834813643</v>
       </c>
       <c r="H41" t="n">
-        <v>50.85391747321462</v>
+        <v>76.55234834813643</v>
       </c>
       <c r="I41" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J41" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K41" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L41" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M41" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N41" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O41" t="n">
         <v>2124.896977382889</v>
@@ -7441,22 +7441,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T41" t="n">
-        <v>2495.244239655612</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U41" t="n">
-        <v>2240.389768102801</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="V41" t="n">
-        <v>1903.410493998742</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="W41" t="n">
-        <v>1540.875563856343</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="X41" t="n">
-        <v>1540.875563856343</v>
+        <v>1683.141194979929</v>
       </c>
       <c r="Y41" t="n">
-        <v>1147.333708432181</v>
+        <v>1683.141194979929</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.8593958421044</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C42" t="n">
-        <v>759.1557230830591</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D42" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E42" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F42" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G42" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H42" t="n">
-        <v>112.1289883137697</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I42" t="n">
         <v>50.85391747321462</v>
@@ -7493,25 +7493,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K42" t="n">
-        <v>68.10001809715425</v>
+        <v>251.697391494926</v>
       </c>
       <c r="L42" t="n">
-        <v>477.85065097758</v>
+        <v>661.4480243753518</v>
       </c>
       <c r="M42" t="n">
-        <v>1014.14682775868</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N42" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O42" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P42" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q42" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R42" t="n">
         <v>2495.728130619192</v>
@@ -7520,16 +7520,16 @@
         <v>2346.762917934841</v>
       </c>
       <c r="T42" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U42" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V42" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W42" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X42" t="n">
         <v>1272.800164973786</v>
@@ -7590,28 +7590,28 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q43" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R43" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S43" t="n">
-        <v>559.0838802267906</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="T43" t="n">
-        <v>559.0838802267906</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="U43" t="n">
-        <v>271.9030803909506</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="V43" t="n">
-        <v>271.9030803909506</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="W43" t="n">
-        <v>50.85391747321462</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="X43" t="n">
-        <v>50.85391747321462</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="Y43" t="n">
         <v>50.85391747321462</v>
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1168.266165919164</v>
+        <v>1390.558083789748</v>
       </c>
       <c r="C44" t="n">
-        <v>1168.266165919164</v>
+        <v>1390.558083789748</v>
       </c>
       <c r="D44" t="n">
-        <v>795.442201146388</v>
+        <v>1017.734119016972</v>
       </c>
       <c r="E44" t="n">
-        <v>795.442201146388</v>
+        <v>622.9483991230786</v>
       </c>
       <c r="F44" t="n">
-        <v>795.442201146388</v>
+        <v>208.797208433249</v>
       </c>
       <c r="G44" t="n">
-        <v>379.7240237655113</v>
+        <v>208.797208433249</v>
       </c>
       <c r="H44" t="n">
-        <v>50.85391747321461</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J44" t="n">
         <v>154.9459054532633</v>
       </c>
       <c r="K44" t="n">
-        <v>443.1860302481631</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L44" t="n">
-        <v>850.7433998907117</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M44" t="n">
         <v>1310.379159876956</v>
@@ -7669,31 +7669,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R44" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S44" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T44" t="n">
         <v>2320.025807011246</v>
       </c>
       <c r="U44" t="n">
-        <v>2249.810510644128</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V44" t="n">
-        <v>1912.83123654007</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="W44" t="n">
-        <v>1550.296306397671</v>
+        <v>1957.490876868847</v>
       </c>
       <c r="X44" t="n">
-        <v>1168.266165919164</v>
+        <v>1575.460736390341</v>
       </c>
       <c r="Y44" t="n">
-        <v>1168.266165919164</v>
+        <v>1575.460736390341</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.859395842104</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C45" t="n">
-        <v>759.1557230830588</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D45" t="n">
-        <v>620.3170860732708</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E45" t="n">
-        <v>473.2890761301421</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F45" t="n">
-        <v>338.5952780800164</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G45" t="n">
         <v>210.0732042050868</v>
@@ -7724,16 +7724,16 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J45" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K45" t="n">
-        <v>392.3832078845233</v>
+        <v>68.10001809715425</v>
       </c>
       <c r="L45" t="n">
-        <v>802.1338407649491</v>
+        <v>477.85065097758</v>
       </c>
       <c r="M45" t="n">
         <v>1014.14682775868</v>
@@ -7745,10 +7745,10 @@
         <v>2018.368674122672</v>
       </c>
       <c r="P45" t="n">
-        <v>2359.098500262958</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q45" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R45" t="n">
         <v>2495.728130619192</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>176.9539853770042</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="C46" t="n">
-        <v>176.9539853770042</v>
+        <v>202.8199911237433</v>
       </c>
       <c r="D46" t="n">
-        <v>176.9539853770042</v>
+        <v>202.8199911237433</v>
       </c>
       <c r="E46" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F46" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G46" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H46" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I46" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J46" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K46" t="n">
         <v>104.1644935890949</v>
@@ -7830,28 +7830,28 @@
         <v>724.8700896544216</v>
       </c>
       <c r="R46" t="n">
-        <v>724.8700896544216</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="S46" t="n">
-        <v>724.8700896544216</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="T46" t="n">
-        <v>724.8700896544216</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="U46" t="n">
-        <v>437.6892898185816</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="V46" t="n">
-        <v>176.9539853770042</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="W46" t="n">
-        <v>176.9539853770042</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="X46" t="n">
-        <v>176.9539853770042</v>
+        <v>372.4359606620631</v>
       </c>
       <c r="Y46" t="n">
-        <v>176.9539853770042</v>
+        <v>372.4359606620631</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8066,7 +8066,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>156.1797194573845</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
@@ -8078,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8294,28 +8294,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>429.0171519255188</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N6" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8531,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>110.8430489735528</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8546,13 +8546,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>283.012208529709</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8768,16 +8768,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>83.74785933339986</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K12" t="n">
-        <v>281.8684094834667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>543.4801842421145</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8789,7 +8789,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562189</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9005,13 +9005,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339989</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>96.41651716248474</v>
       </c>
       <c r="L15" t="n">
-        <v>154.5336713314974</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9242,10 +9242,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>83.74785933339986</v>
+        <v>83.74785933339989</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834665</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9260,10 +9260,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>352.0652005990325</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.64858173562189</v>
+        <v>87.64858173562193</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9409,7 +9409,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406825</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9479,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>83.74785933339986</v>
+        <v>83.74785933339989</v>
       </c>
       <c r="K21" t="n">
-        <v>281.8684094834663</v>
+        <v>281.8684094834669</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9500,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.6485817356219</v>
+        <v>87.64858173562193</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9719,7 +9719,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>201.6979228743348</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9728,7 +9728,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>295.5863090836208</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562195</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,7 +9953,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>83.74785933339987</v>
+        <v>83.74785933339989</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9965,16 +9965,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>561.2086880137346</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>352.0652005990326</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.64858173562192</v>
+        <v>87.64858173562195</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10129,7 +10129,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P29" t="n">
-        <v>418.3383206229273</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
         <v>276.0094878578761</v>
@@ -10190,7 +10190,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>83.74785933339987</v>
+        <v>83.74785933339989</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10199,7 +10199,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>358.0282919211323</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10208,10 +10208,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>352.0652005990326</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562195</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10439,10 +10439,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>481.0382014046027</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>369.9141298177314</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10606,7 +10606,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.009487857876</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10664,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10676,16 +10676,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836206</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>352.065200599033</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236957</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155858</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10901,16 +10901,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K39" t="n">
-        <v>78.99621350193966</v>
+        <v>281.8684094834663</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>542.666399926413</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10922,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11080,7 +11080,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>276.009487857876</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11141,7 +11141,7 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K42" t="n">
-        <v>96.41651716248475</v>
+        <v>281.8684094834663</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11159,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236957</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11375,16 +11375,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>96.41651716248475</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>277.8578053120003</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -22549,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.902161714297051</v>
       </c>
       <c r="G2" t="n">
         <v>411.9429466803539</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -22609,13 +22609,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>258.4737091780945</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22628,25 +22628,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>11.76792460626649</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>95.69231349987228</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22719,7 +22719,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>155.6573991206244</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>101.8597073339676</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>29.20436791112911</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -22846,7 +22846,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>225.4424436438509</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22868,22 +22868,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>38.50770056809695</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22998,13 +22998,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -23023,25 +23023,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>133.6035419151753</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>125.0900569740948</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -23086,7 +23086,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -23108,16 +23108,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>5.217619302113263</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>57.18054173895115</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>161.3163735339366</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>245.5312997239413</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>132.6811930177282</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
         <v>156.363858050434</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180442</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4433659829895</v>
+        <v>58.73667705320773</v>
       </c>
       <c r="U11" t="n">
         <v>252.305926837283</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
         <v>378.2098390737216</v>
@@ -23439,7 +23439,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138465</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R13" t="n">
         <v>140.32293915197</v>
@@ -23472,16 +23472,16 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
-        <v>158.455770243023</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>129.2677583094396</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.7435140675288</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>135.4421446925125</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180442</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S14" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -23655,7 +23655,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>68.24762868879795</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -23676,7 +23676,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138465</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R16" t="n">
         <v>140.32293915197</v>
@@ -23706,16 +23706,16 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>230.1151168515673</v>
+        <v>105.2760496268157</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>279.0374104751655</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>262.3139613667693</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.04763384339746</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23913,7 +23913,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80540818138465</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R19" t="n">
         <v>140.32293915197</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>158.4557702430233</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>385.2542258124004</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.195839725556482</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24144,13 +24144,13 @@
         <v>167.0592210434877</v>
       </c>
       <c r="H22" t="n">
-        <v>156.2556384040709</v>
+        <v>56.58345724993252</v>
       </c>
       <c r="I22" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138465</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R22" t="n">
         <v>140.32293915197</v>
@@ -24183,19 +24183,19 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>39.60668762099047</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>271.0974906105445</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>325.5814052293737</v>
       </c>
       <c r="I23" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S23" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T23" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>252.305926837283</v>
@@ -24268,10 +24268,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>253.6926027141432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24384,10 +24384,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I25" t="n">
-        <v>37.93646935790711</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J25" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>208.5868485504649</v>
@@ -24426,7 +24426,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>64.45616617921635</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>364.7435140675288</v>
+        <v>13.52851489881806</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.73916953180445</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -24621,10 +24621,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I28" t="n">
-        <v>85.28009732238277</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R28" t="n">
         <v>140.32293915197</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>158.4557702430233</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>135.5868896912282</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I29" t="n">
-        <v>156.363858050434</v>
+        <v>132.9018947613461</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24849,10 +24849,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>51.28366727034232</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0592210434877</v>
+        <v>67.38703988934937</v>
       </c>
       <c r="H31" t="n">
         <v>156.2556384040709</v>
@@ -24861,7 +24861,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J31" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R31" t="n">
         <v>140.32293915197</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>364.2004426008385</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>221.5966079759874</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
@@ -24985,7 +24985,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25122,28 +25122,28 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R34" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>208.5868485504649</v>
       </c>
       <c r="T34" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>158.4557702430232</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>207.2858446012697</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>51.87159526589375</v>
+        <v>219.8252675927226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25222,7 +25222,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25320,7 +25320,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -25332,10 +25332,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S37" t="n">
-        <v>40.88038799724049</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T37" t="n">
-        <v>230.1151168515673</v>
+        <v>104.2618952571089</v>
       </c>
       <c r="U37" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>13.52851489881766</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>195.0837759276799</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
@@ -25557,13 +25557,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>50.8167429421559</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0592210434877</v>
+        <v>67.38703988934925</v>
       </c>
       <c r="H40" t="n">
         <v>156.2556384040709</v>
@@ -25630,25 +25630,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I41" t="n">
-        <v>156.363858050434</v>
+        <v>130.9224114842614</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T41" t="n">
-        <v>173.4662483179216</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S43" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>230.1151168515673</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>45.43463714819737</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>64.45616617921624</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>207.0494780482523</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I44" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>182.7927834338368</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0.04251118227091411</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>42.22015381873603</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H46" t="n">
         <v>156.2556384040709</v>
@@ -26070,19 +26070,19 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R46" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>230.1151168515673</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>620374.6590122792</v>
+        <v>620374.6590122791</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>620374.6590122791</v>
+        <v>620374.6590122794</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>620374.659012279</v>
+        <v>620374.6590122792</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703017.117567023</v>
+        <v>703017.1175670231</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>703017.117567023</v>
+        <v>703017.1175670229</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>703017.1175670228</v>
+        <v>703017.117567023</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703017.1175670233</v>
+        <v>703017.117567023</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>703017.1175670233</v>
+        <v>703017.117567023</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>703017.1175670234</v>
+        <v>703017.1175670229</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>703017.117567023</v>
+        <v>703017.1175670231</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>703017.1175670229</v>
+        <v>703017.1175670233</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188207.2044394288</v>
+        <v>188207.2044394289</v>
       </c>
       <c r="C2" t="n">
-        <v>188207.2044394288</v>
+        <v>188207.2044394289</v>
       </c>
       <c r="D2" t="n">
-        <v>188207.2044394288</v>
+        <v>188207.2044394289</v>
       </c>
       <c r="E2" t="n">
-        <v>214591.0511962087</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="F2" t="n">
-        <v>214591.0511962089</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="G2" t="n">
         <v>214591.0511962088</v>
       </c>
       <c r="H2" t="n">
-        <v>214591.0511962088</v>
+        <v>214591.0511962087</v>
       </c>
       <c r="I2" t="n">
         <v>214591.0511962087</v>
@@ -26340,22 +26340,22 @@
         <v>214591.0511962088</v>
       </c>
       <c r="K2" t="n">
-        <v>214591.0511962089</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="L2" t="n">
-        <v>214591.0511962088</v>
+        <v>214591.0511962087</v>
       </c>
       <c r="M2" t="n">
         <v>214591.0511962088</v>
       </c>
       <c r="N2" t="n">
-        <v>214591.051196209</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="O2" t="n">
-        <v>214591.0511962089</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="P2" t="n">
-        <v>214591.0511962089</v>
+        <v>214591.0511962088</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>109285.8666493013</v>
+        <v>109285.8666493012</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27504.83665689657</v>
+        <v>27504.83665689654</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34011.00713450602</v>
+        <v>34011.00713450603</v>
       </c>
       <c r="C4" t="n">
         <v>34011.00713450603</v>
       </c>
       <c r="D4" t="n">
-        <v>34011.00713450602</v>
+        <v>34011.00713450603</v>
       </c>
       <c r="E4" t="n">
         <v>34483.08084438485</v>
       </c>
       <c r="F4" t="n">
-        <v>34483.08084438484</v>
+        <v>34483.08084438485</v>
       </c>
       <c r="G4" t="n">
         <v>34483.08084438485</v>
       </c>
       <c r="H4" t="n">
+        <v>34483.08084438485</v>
+      </c>
+      <c r="I4" t="n">
         <v>34483.08084438484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>34483.08084438485</v>
       </c>
       <c r="J4" t="n">
         <v>34483.08084438485</v>
       </c>
       <c r="K4" t="n">
-        <v>34483.08084438485</v>
+        <v>34483.08084438484</v>
       </c>
       <c r="L4" t="n">
         <v>34483.08084438485</v>
@@ -26453,13 +26453,13 @@
         <v>34483.08084438485</v>
       </c>
       <c r="N4" t="n">
+        <v>34483.08084438485</v>
+      </c>
+      <c r="O4" t="n">
         <v>34483.08084438484</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>34483.08084438485</v>
-      </c>
-      <c r="P4" t="n">
-        <v>34483.08084438484</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>65566.03463691141</v>
       </c>
       <c r="D5" t="n">
-        <v>65566.0346369114</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
         <v>40720.20246230468</v>
       </c>
       <c r="F5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="G5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="H5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="I5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="J5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="K5" t="n">
         <v>40720.20246230467</v>
@@ -26505,13 +26505,13 @@
         <v>40720.20246230468</v>
       </c>
       <c r="N5" t="n">
-        <v>40720.20246230467</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="O5" t="n">
         <v>40720.20246230468</v>
       </c>
       <c r="P5" t="n">
-        <v>40720.20246230467</v>
+        <v>40720.20246230468</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87411.02204951597</v>
+        <v>-95530.61153602166</v>
       </c>
       <c r="C6" t="n">
-        <v>88630.16266801138</v>
+        <v>80510.57318150571</v>
       </c>
       <c r="D6" t="n">
-        <v>88630.1626680114</v>
+        <v>80510.57318150571</v>
       </c>
       <c r="E6" t="n">
-        <v>30101.90124021791</v>
+        <v>23534.30273940528</v>
       </c>
       <c r="F6" t="n">
-        <v>139387.7678895194</v>
+        <v>132820.1693887064</v>
       </c>
       <c r="G6" t="n">
-        <v>139387.7678895193</v>
+        <v>132820.1693887064</v>
       </c>
       <c r="H6" t="n">
-        <v>139387.7678895193</v>
+        <v>132820.1693887064</v>
       </c>
       <c r="I6" t="n">
-        <v>139387.7678895192</v>
+        <v>132820.1693887064</v>
       </c>
       <c r="J6" t="n">
-        <v>1945.337097742158</v>
+        <v>-4622.261403070723</v>
       </c>
       <c r="K6" t="n">
-        <v>139387.7678895193</v>
+        <v>132820.1693887064</v>
       </c>
       <c r="L6" t="n">
-        <v>139387.7678895193</v>
+        <v>132820.1693887064</v>
       </c>
       <c r="M6" t="n">
-        <v>111882.9312326227</v>
+        <v>105315.3327318099</v>
       </c>
       <c r="N6" t="n">
-        <v>139387.7678895195</v>
+        <v>132820.1693887064</v>
       </c>
       <c r="O6" t="n">
-        <v>139387.7678895194</v>
+        <v>132820.1693887064</v>
       </c>
       <c r="P6" t="n">
-        <v>139387.7678895194</v>
+        <v>132820.1693887064</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="F3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988861</v>
       </c>
       <c r="G3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988864</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988875</v>
+        <v>95.01032947988864</v>
       </c>
       <c r="I3" t="n">
-        <v>95.01032947988868</v>
+        <v>95.01032947988863</v>
       </c>
       <c r="J3" t="n">
-        <v>95.01032947988868</v>
+        <v>95.01032947988863</v>
       </c>
       <c r="K3" t="n">
-        <v>95.01032947988868</v>
+        <v>95.01032947988863</v>
       </c>
       <c r="L3" t="n">
         <v>95.01032947988872</v>
@@ -26795,25 +26795,25 @@
         <v>525.3032012649903</v>
       </c>
       <c r="D4" t="n">
-        <v>525.3032012649902</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
         <v>635.6739684151827</v>
       </c>
       <c r="F4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="G4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="H4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="I4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="J4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="K4" t="n">
         <v>635.6739684151826</v>
@@ -26825,13 +26825,13 @@
         <v>635.6739684151827</v>
       </c>
       <c r="N4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="O4" t="n">
         <v>635.6739684151827</v>
       </c>
       <c r="P4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151827</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3707671501925</v>
+        <v>110.3707671501924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501925</v>
+        <v>110.3707671501924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501925</v>
+        <v>110.3707671501924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850213</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L11" t="n">
-        <v>60.2747439975781</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712772</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410154</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326684</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472704</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653939</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N12" t="n">
-        <v>53.15110875309365</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712762</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P12" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S12" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302823</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J13" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.34655975146321</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884373</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859841</v>
       </c>
       <c r="H14" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285791</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630632</v>
       </c>
       <c r="K14" t="n">
-        <v>48.58560883850213</v>
+        <v>48.58560883850203</v>
       </c>
       <c r="L14" t="n">
-        <v>60.2747439975781</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712772</v>
+        <v>67.0672663971276</v>
       </c>
       <c r="N14" t="n">
-        <v>68.15248488410154</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911389</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736616</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531184</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504371</v>
       </c>
       <c r="T14" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689865</v>
       </c>
       <c r="J15" t="n">
-        <v>19.30771233326684</v>
+        <v>19.3077123332668</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472704</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869704</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653939</v>
+        <v>51.78062956653929</v>
       </c>
       <c r="N15" t="n">
-        <v>53.15110875309365</v>
+        <v>53.15110875309354</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712762</v>
+        <v>48.62288059712753</v>
       </c>
       <c r="P15" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806972</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927055</v>
       </c>
       <c r="R15" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488022</v>
       </c>
       <c r="S15" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133736</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H16" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302823</v>
+        <v>5.152363441302813</v>
       </c>
       <c r="J16" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L16" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M16" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N16" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729452</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.34655975146321</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R16" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795556</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884373</v>
+        <v>2.985816419884367</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.7320468009106169</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859842</v>
       </c>
       <c r="H17" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I17" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285792</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630633</v>
       </c>
       <c r="K17" t="n">
-        <v>48.58560883850213</v>
+        <v>48.58560883850205</v>
       </c>
       <c r="L17" t="n">
-        <v>60.2747439975781</v>
+        <v>60.274743997578</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712772</v>
+        <v>67.06726639712763</v>
       </c>
       <c r="N17" t="n">
-        <v>68.15248488410154</v>
+        <v>68.15248488410143</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911392</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736618</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531185</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730073</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504374</v>
       </c>
       <c r="T17" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309397</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287873</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680624</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689867</v>
       </c>
       <c r="J18" t="n">
-        <v>19.30771233326684</v>
+        <v>19.30771233326681</v>
       </c>
       <c r="K18" t="n">
-        <v>32.99995566472704</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L18" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869706</v>
       </c>
       <c r="M18" t="n">
-        <v>51.78062956653939</v>
+        <v>51.7806295665393</v>
       </c>
       <c r="N18" t="n">
-        <v>53.15110875309365</v>
+        <v>53.15110875309355</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712762</v>
+        <v>48.62288059712754</v>
       </c>
       <c r="P18" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806974</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927056</v>
       </c>
       <c r="R18" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488023</v>
       </c>
       <c r="S18" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880454</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133738</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407828</v>
       </c>
       <c r="H19" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302823</v>
+        <v>5.152363441302814</v>
       </c>
       <c r="J19" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K19" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L19" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M19" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511016</v>
       </c>
       <c r="N19" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729453</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.34655975146321</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R19" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795558</v>
       </c>
       <c r="S19" t="n">
-        <v>2.985816419884373</v>
+        <v>2.985816419884368</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.7320468009106171</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.009345278309497253</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859847</v>
+        <v>0.3819510732859842</v>
       </c>
       <c r="H20" t="n">
-        <v>3.911656429290091</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285792</v>
       </c>
       <c r="J20" t="n">
-        <v>32.41761990630637</v>
+        <v>32.41761990630633</v>
       </c>
       <c r="K20" t="n">
-        <v>48.58560883850211</v>
+        <v>48.58560883850205</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757807</v>
+        <v>60.274743997578</v>
       </c>
       <c r="M20" t="n">
-        <v>67.0672663971277</v>
+        <v>67.06726639712763</v>
       </c>
       <c r="N20" t="n">
-        <v>68.15248488410151</v>
+        <v>68.15248488410143</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911399</v>
+        <v>64.35445889911392</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736624</v>
+        <v>54.92504177736618</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.2464189653119</v>
+        <v>41.24641896531185</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730076</v>
+        <v>23.99273410730073</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504385</v>
+        <v>8.703710082504374</v>
       </c>
       <c r="T20" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309397</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287877</v>
+        <v>0.03055608586287873</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2043618407680626</v>
+        <v>0.2043618407680624</v>
       </c>
       <c r="H21" t="n">
-        <v>1.973705146365237</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689876</v>
+        <v>7.036142324689867</v>
       </c>
       <c r="J21" t="n">
-        <v>19.30771233326683</v>
+        <v>19.30771233326681</v>
       </c>
       <c r="K21" t="n">
-        <v>32.99995566472703</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869711</v>
+        <v>44.37251283869706</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653936</v>
+        <v>51.7806295665393</v>
       </c>
       <c r="N21" t="n">
-        <v>53.15110875309362</v>
+        <v>53.15110875309355</v>
       </c>
       <c r="O21" t="n">
-        <v>48.6228805971276</v>
+        <v>48.62288059712754</v>
       </c>
       <c r="P21" t="n">
-        <v>39.02414834806978</v>
+        <v>39.02414834806974</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.08660970927059</v>
+        <v>26.08660970927056</v>
       </c>
       <c r="R21" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488023</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880459</v>
+        <v>3.795931559880454</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133748</v>
+        <v>0.8237216301133738</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.171330102340783</v>
+        <v>0.1713301023407828</v>
       </c>
       <c r="H22" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I22" t="n">
-        <v>5.15236344130282</v>
+        <v>5.152363441302814</v>
       </c>
       <c r="J22" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K22" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L22" t="n">
-        <v>25.47211357891969</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511019</v>
+        <v>26.85677231511016</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729456</v>
+        <v>26.21817829729453</v>
       </c>
       <c r="O22" t="n">
-        <v>24.21673119267723</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P22" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795568</v>
+        <v>7.703624419795558</v>
       </c>
       <c r="S22" t="n">
-        <v>2.985816419884372</v>
+        <v>2.985816419884368</v>
       </c>
       <c r="T22" t="n">
-        <v>0.732046800910618</v>
+        <v>0.7320468009106171</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009345278309497265</v>
+        <v>0.009345278309497253</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859842</v>
       </c>
       <c r="H23" t="n">
-        <v>3.911656429290088</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I23" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285792</v>
       </c>
       <c r="J23" t="n">
-        <v>32.41761990630634</v>
+        <v>32.41761990630633</v>
       </c>
       <c r="K23" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850204</v>
       </c>
       <c r="L23" t="n">
-        <v>60.27474399757803</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M23" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712761</v>
       </c>
       <c r="N23" t="n">
-        <v>68.15248488410145</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O23" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911391</v>
       </c>
       <c r="P23" t="n">
-        <v>54.9250417773662</v>
+        <v>54.92504177736617</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531185</v>
       </c>
       <c r="R23" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S23" t="n">
-        <v>8.703710082504378</v>
+        <v>8.703710082504372</v>
       </c>
       <c r="T23" t="n">
-        <v>1.671990823309397</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03055608586287874</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H24" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I24" t="n">
-        <v>7.03614232468987</v>
+        <v>7.036142324689866</v>
       </c>
       <c r="J24" t="n">
-        <v>19.30771233326682</v>
+        <v>19.3077123332668</v>
       </c>
       <c r="K24" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L24" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869705</v>
       </c>
       <c r="M24" t="n">
-        <v>51.78062956653933</v>
+        <v>51.7806295665393</v>
       </c>
       <c r="N24" t="n">
-        <v>53.15110875309358</v>
+        <v>53.15110875309355</v>
       </c>
       <c r="O24" t="n">
-        <v>48.62288059712756</v>
+        <v>48.62288059712753</v>
       </c>
       <c r="P24" t="n">
-        <v>39.02414834806975</v>
+        <v>39.02414834806973</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.08660970927057</v>
+        <v>26.08660970927055</v>
       </c>
       <c r="R24" t="n">
         <v>12.68836060488023</v>
       </c>
       <c r="S24" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8237216301133742</v>
+        <v>0.8237216301133737</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H25" t="n">
-        <v>1.523280364448052</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I25" t="n">
-        <v>5.152363441302817</v>
+        <v>5.152363441302814</v>
       </c>
       <c r="J25" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K25" t="n">
-        <v>19.90544279922913</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L25" t="n">
-        <v>25.47211357891966</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M25" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N25" t="n">
-        <v>26.21817829729454</v>
+        <v>26.21817829729453</v>
       </c>
       <c r="O25" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P25" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R25" t="n">
-        <v>7.703624419795561</v>
+        <v>7.703624419795557</v>
       </c>
       <c r="S25" t="n">
-        <v>2.985816419884369</v>
+        <v>2.985816419884368</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7320468009106175</v>
+        <v>0.732046800910617</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859842</v>
       </c>
       <c r="H26" t="n">
-        <v>3.911656429290088</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I26" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285792</v>
       </c>
       <c r="J26" t="n">
-        <v>32.41761990630634</v>
+        <v>32.41761990630633</v>
       </c>
       <c r="K26" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850204</v>
       </c>
       <c r="L26" t="n">
-        <v>60.27474399757803</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M26" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712761</v>
       </c>
       <c r="N26" t="n">
-        <v>68.15248488410145</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O26" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911391</v>
       </c>
       <c r="P26" t="n">
-        <v>54.9250417773662</v>
+        <v>54.92504177736617</v>
       </c>
       <c r="Q26" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531185</v>
       </c>
       <c r="R26" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S26" t="n">
-        <v>8.703710082504378</v>
+        <v>8.703710082504372</v>
       </c>
       <c r="T26" t="n">
-        <v>1.671990823309397</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03055608586287874</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H27" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I27" t="n">
-        <v>7.03614232468987</v>
+        <v>7.036142324689866</v>
       </c>
       <c r="J27" t="n">
-        <v>19.30771233326682</v>
+        <v>19.3077123332668</v>
       </c>
       <c r="K27" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L27" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869705</v>
       </c>
       <c r="M27" t="n">
-        <v>51.78062956653933</v>
+        <v>51.7806295665393</v>
       </c>
       <c r="N27" t="n">
-        <v>53.15110875309358</v>
+        <v>53.15110875309355</v>
       </c>
       <c r="O27" t="n">
-        <v>48.62288059712756</v>
+        <v>48.62288059712753</v>
       </c>
       <c r="P27" t="n">
-        <v>39.02414834806975</v>
+        <v>39.02414834806973</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.08660970927057</v>
+        <v>26.08660970927055</v>
       </c>
       <c r="R27" t="n">
         <v>12.68836060488023</v>
       </c>
       <c r="S27" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8237216301133742</v>
+        <v>0.8237216301133737</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H28" t="n">
-        <v>1.523280364448052</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I28" t="n">
-        <v>5.152363441302817</v>
+        <v>5.152363441302814</v>
       </c>
       <c r="J28" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K28" t="n">
-        <v>19.90544279922913</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L28" t="n">
-        <v>25.47211357891966</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M28" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N28" t="n">
-        <v>26.21817829729454</v>
+        <v>26.21817829729453</v>
       </c>
       <c r="O28" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P28" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R28" t="n">
-        <v>7.703624419795561</v>
+        <v>7.703624419795557</v>
       </c>
       <c r="S28" t="n">
-        <v>2.985816419884369</v>
+        <v>2.985816419884368</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7320468009106175</v>
+        <v>0.732046800910617</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859842</v>
       </c>
       <c r="H29" t="n">
-        <v>3.911656429290088</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I29" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285792</v>
       </c>
       <c r="J29" t="n">
-        <v>32.41761990630634</v>
+        <v>32.41761990630633</v>
       </c>
       <c r="K29" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850204</v>
       </c>
       <c r="L29" t="n">
-        <v>60.27474399757803</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M29" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712761</v>
       </c>
       <c r="N29" t="n">
-        <v>68.15248488410145</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O29" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911391</v>
       </c>
       <c r="P29" t="n">
-        <v>54.9250417773662</v>
+        <v>54.92504177736617</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531185</v>
       </c>
       <c r="R29" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S29" t="n">
-        <v>8.703710082504378</v>
+        <v>8.703710082504372</v>
       </c>
       <c r="T29" t="n">
-        <v>1.671990823309397</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03055608586287874</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H30" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I30" t="n">
-        <v>7.03614232468987</v>
+        <v>7.036142324689866</v>
       </c>
       <c r="J30" t="n">
-        <v>19.30771233326682</v>
+        <v>19.3077123332668</v>
       </c>
       <c r="K30" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L30" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869705</v>
       </c>
       <c r="M30" t="n">
-        <v>51.78062956653933</v>
+        <v>51.7806295665393</v>
       </c>
       <c r="N30" t="n">
-        <v>53.15110875309358</v>
+        <v>53.15110875309355</v>
       </c>
       <c r="O30" t="n">
-        <v>48.62288059712756</v>
+        <v>48.62288059712753</v>
       </c>
       <c r="P30" t="n">
-        <v>39.02414834806975</v>
+        <v>39.02414834806973</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.08660970927057</v>
+        <v>26.08660970927055</v>
       </c>
       <c r="R30" t="n">
         <v>12.68836060488023</v>
       </c>
       <c r="S30" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8237216301133742</v>
+        <v>0.8237216301133737</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H31" t="n">
-        <v>1.523280364448052</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I31" t="n">
-        <v>5.152363441302817</v>
+        <v>5.152363441302814</v>
       </c>
       <c r="J31" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K31" t="n">
-        <v>19.90544279922913</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L31" t="n">
-        <v>25.47211357891966</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M31" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N31" t="n">
-        <v>26.21817829729454</v>
+        <v>26.21817829729453</v>
       </c>
       <c r="O31" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P31" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R31" t="n">
-        <v>7.703624419795561</v>
+        <v>7.703624419795557</v>
       </c>
       <c r="S31" t="n">
-        <v>2.985816419884369</v>
+        <v>2.985816419884368</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7320468009106175</v>
+        <v>0.732046800910617</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34786,7 +34786,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>40.69581689574456</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
@@ -34798,7 +34798,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>316.4417183543709</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N6" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.787477306886144</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35266,13 +35266,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>167.1527599185979</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K11" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L11" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M11" t="n">
         <v>464.2785454406509</v>
@@ -35424,13 +35424,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P11" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>202.8721959815271</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M12" t="n">
-        <v>541.7133098798994</v>
+        <v>479.776911247014</v>
       </c>
       <c r="N12" t="n">
-        <v>569.5810543320049</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
-        <v>444.7844470457649</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
         <v>344.1715415558448</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L13" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M13" t="n">
         <v>146.0421320399604</v>
@@ -35582,10 +35582,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O13" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K14" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L14" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M14" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N14" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605623</v>
       </c>
       <c r="P14" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q14" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17048660913163</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8085946144126</v>
+        <v>17.42030366054503</v>
       </c>
       <c r="L15" t="n">
-        <v>86.33075059904678</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M15" t="n">
-        <v>541.7133098798994</v>
+        <v>541.7133098798993</v>
       </c>
       <c r="N15" t="n">
-        <v>569.5810543320049</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O15" t="n">
-        <v>444.7844470457649</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P15" t="n">
-        <v>344.1715415558448</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q15" t="n">
         <v>185.4518923209819</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L16" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M16" t="n">
         <v>146.0421320399604</v>
@@ -35819,10 +35819,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O16" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K17" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L17" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M17" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N17" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P17" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q17" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.8085946144126</v>
+        <v>202.8721959815267</v>
       </c>
       <c r="L18" t="n">
         <v>413.8895281620462</v>
@@ -35974,13 +35974,13 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N18" t="n">
-        <v>569.5810543320049</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O18" t="n">
-        <v>444.7844470457649</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
-        <v>282.235142922959</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L19" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M19" t="n">
         <v>146.0421320399604</v>
@@ -36056,10 +36056,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O19" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P19" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K20" t="n">
         <v>291.1516412069695</v>
@@ -36129,19 +36129,19 @@
         <v>411.674110750049</v>
       </c>
       <c r="M20" t="n">
-        <v>464.2785454406509</v>
+        <v>464.278545440651</v>
       </c>
       <c r="N20" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O20" t="n">
         <v>372.4398977605624</v>
       </c>
       <c r="P20" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>202.8721959815267</v>
+        <v>202.8721959815272</v>
       </c>
       <c r="L21" t="n">
         <v>413.8895281620462</v>
@@ -36214,10 +36214,10 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
-        <v>444.7844470457649</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P21" t="n">
-        <v>344.1715415558448</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L22" t="n">
         <v>127.0954261044343</v>
@@ -36293,10 +36293,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O22" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>464.2785454406508</v>
       </c>
       <c r="N23" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O23" t="n">
         <v>372.4398977605624</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>80.17048660913161</v>
+        <v>80.1704866091316</v>
       </c>
       <c r="K24" t="n">
-        <v>264.8085946144125</v>
+        <v>122.7017093723951</v>
       </c>
       <c r="L24" t="n">
         <v>413.8895281620462</v>
@@ -36448,7 +36448,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N24" t="n">
-        <v>242.0222767690061</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O24" t="n">
         <v>444.7844470457648</v>
@@ -36457,7 +36457,7 @@
         <v>344.1715415558447</v>
       </c>
       <c r="Q24" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L25" t="n">
         <v>127.0954261044343</v>
@@ -36533,7 +36533,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P25" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>464.2785454406508</v>
       </c>
       <c r="N26" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O26" t="n">
         <v>372.4398977605624</v>
@@ -36685,13 +36685,13 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N27" t="n">
-        <v>507.6446556991198</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O27" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P27" t="n">
-        <v>344.1715415558447</v>
+        <v>282.235142922959</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L28" t="n">
         <v>127.0954261044343</v>
@@ -36770,7 +36770,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P28" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36843,13 +36843,13 @@
         <v>464.2785454406508</v>
       </c>
       <c r="N29" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O29" t="n">
         <v>372.4398977605624</v>
       </c>
       <c r="P29" t="n">
-        <v>285.386553349137</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q29" t="n">
         <v>136.6325338001977</v>
@@ -36919,7 +36919,7 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M30" t="n">
-        <v>294.3250189260318</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N30" t="n">
         <v>569.5810543320048</v>
@@ -36928,10 +36928,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P30" t="n">
-        <v>344.1715415558447</v>
+        <v>282.235142922959</v>
       </c>
       <c r="Q30" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L31" t="n">
         <v>127.0954261044343</v>
@@ -37007,7 +37007,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P31" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N33" t="n">
-        <v>427.474169089988</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O33" t="n">
-        <v>444.7844470457648</v>
+        <v>302.6775618037478</v>
       </c>
       <c r="P33" t="n">
         <v>344.1715415558448</v>
@@ -37326,7 +37326,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q35" t="n">
-        <v>136.6325338001976</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K36" t="n">
         <v>264.8085946144125</v>
@@ -37396,16 +37396,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N36" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690058</v>
       </c>
       <c r="O36" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P36" t="n">
-        <v>282.2351429229594</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>105.1434222020694</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K38" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L38" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500492</v>
       </c>
       <c r="M38" t="n">
         <v>464.2785454406509</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>202.8721959815267</v>
       </c>
       <c r="L39" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M39" t="n">
-        <v>478.9631269313124</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N39" t="n">
         <v>569.5810543320048</v>
@@ -37642,7 +37642,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q39" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q41" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001976</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>17.42030366054508</v>
+        <v>202.8721959815267</v>
       </c>
       <c r="L42" t="n">
         <v>413.8895281620462</v>
@@ -37879,7 +37879,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q42" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.1434222020694</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K44" t="n">
         <v>291.1516412069695</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054508</v>
       </c>
       <c r="L45" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M45" t="n">
-        <v>214.1545323168998</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N45" t="n">
         <v>569.5810543320048</v>
